--- a/lcd decode.xlsx
+++ b/lcd decode.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul nonadmin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul nonadmin\Desktop\Arduino_shield_data\LCD_HT1622_new_version_of_Martys_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0110EC03-AB26-42AF-9633-CA5F672FFEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A508D6EE-DE6A-4963-A7E4-F14C7C977799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{BF4AB91E-5FF4-40A0-A121-052D5172F618}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{BF4AB91E-5FF4-40A0-A121-052D5172F618}"/>
   </bookViews>
   <sheets>
-    <sheet name="Font" sheetId="1" r:id="rId1"/>
-    <sheet name="LCD adressing" sheetId="2" r:id="rId2"/>
+    <sheet name="Font HT1622" sheetId="1" r:id="rId1"/>
+    <sheet name="LCD adressing HT1622" sheetId="2" r:id="rId2"/>
     <sheet name="HT1622 command summary" sheetId="3" r:id="rId3"/>
     <sheet name="HT1622 LCD timing diagrams" sheetId="4" r:id="rId4"/>
+    <sheet name="LCD add HT1625" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="data">'LCD adressing'!$L$2:$AA$5</definedName>
+    <definedName name="data">'LCD adressing HT1622'!$L$2:$AA$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="218">
   <si>
     <t>bin</t>
   </si>
@@ -340,6 +341,360 @@
   </si>
   <si>
     <t>note: seg0 &amp; seg 1 lines are not connected</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>bc + dec pt</t>
+  </si>
+  <si>
+    <t>Add L</t>
+  </si>
+  <si>
+    <t>Add H</t>
+  </si>
+  <si>
+    <t>COM Lines</t>
+  </si>
+  <si>
+    <t>Key:</t>
+  </si>
+  <si>
+    <t>10x20 grid</t>
+  </si>
+  <si>
+    <t>no element connected</t>
+  </si>
+  <si>
+    <t>3x 7 element digits on right</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>0111010  0100</t>
+  </si>
+  <si>
+    <t>0111000  0100</t>
+  </si>
+  <si>
+    <t>colon</t>
+  </si>
+  <si>
+    <t>1001010  0100</t>
+  </si>
+  <si>
+    <t>1001100  0100</t>
+  </si>
+  <si>
+    <t>1001110  0100</t>
+  </si>
+  <si>
+    <t>PULSE</t>
+  </si>
+  <si>
+    <t>HEART</t>
+  </si>
+  <si>
+    <t>SPEED</t>
+  </si>
+  <si>
+    <t>3x 7 element digits on left</t>
+  </si>
+  <si>
+    <t>4x 7 element digits in middle (Clock digits)</t>
+  </si>
+  <si>
+    <t>0101011  1000</t>
+  </si>
+  <si>
+    <t>all in the COM7 line are decimal points</t>
+  </si>
+  <si>
+    <t>SEGMENT Lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The HT1625 is arranged in 128 x 4 bits.  128d = "0111 1111"b, (7 bits wide).  As there are only 258 elements on the LCD, we only need 40 SEG lines and/or 81 address lines </t>
+  </si>
+  <si>
+    <t>1000011  1000</t>
+  </si>
+  <si>
+    <t>1000011  0100</t>
+  </si>
+  <si>
+    <t>1000011  0010</t>
+  </si>
+  <si>
+    <t>1000011  0001</t>
+  </si>
+  <si>
+    <t>1000101  1000</t>
+  </si>
+  <si>
+    <t>1000101  0100</t>
+  </si>
+  <si>
+    <t>1000101  0010</t>
+  </si>
+  <si>
+    <t>1000101  0001</t>
+  </si>
+  <si>
+    <t>1000111  1000</t>
+  </si>
+  <si>
+    <t>1000111  0100</t>
+  </si>
+  <si>
+    <t>1000111  0010</t>
+  </si>
+  <si>
+    <t>1000111  0001</t>
+  </si>
+  <si>
+    <t>1001001  1000</t>
+  </si>
+  <si>
+    <t>1001001  0100</t>
+  </si>
+  <si>
+    <t>1001001  0010</t>
+  </si>
+  <si>
+    <t>1001001  0001</t>
+  </si>
+  <si>
+    <t>1001011  1000</t>
+  </si>
+  <si>
+    <t>1001011  0100</t>
+  </si>
+  <si>
+    <t>1001011  0010</t>
+  </si>
+  <si>
+    <t>1001011  0001</t>
+  </si>
+  <si>
+    <t>1001101  1000</t>
+  </si>
+  <si>
+    <t>1001101  0100</t>
+  </si>
+  <si>
+    <t>1001101  0010</t>
+  </si>
+  <si>
+    <t>1001101  0001</t>
+  </si>
+  <si>
+    <t>As example the left digits are represented by the adress and data groups:</t>
+  </si>
+  <si>
+    <t>left digit</t>
+  </si>
+  <si>
+    <t>middle digit</t>
+  </si>
+  <si>
+    <t>right digit</t>
+  </si>
+  <si>
+    <t>digitMiddle</t>
+  </si>
+  <si>
+    <t>digitLeft</t>
+  </si>
+  <si>
+    <t>digitRight</t>
+  </si>
+  <si>
+    <t>Decomposing into digits, address and data in hex</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>So in "C" format  where the elements are arranged clockwise starting from top, dec point last</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or </t>
+  </si>
+  <si>
+    <t xml:space="preserve">So to write a "2" in the right digit we need to illuminate elements (hex format): </t>
+  </si>
+  <si>
+    <t>digitRight[]</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>dec point</t>
+  </si>
+  <si>
+    <t>{43,1}</t>
+  </si>
+  <si>
+    <t>{43,2}</t>
+  </si>
+  <si>
+    <t>{43,4}</t>
+  </si>
+  <si>
+    <t>{45,8}</t>
+  </si>
+  <si>
+    <t>{45,4}</t>
+  </si>
+  <si>
+    <t>{45,1}</t>
+  </si>
+  <si>
+    <t>{45,2}</t>
+  </si>
+  <si>
+    <t>{43,8}</t>
+  </si>
+  <si>
+    <t>{{a}, {b}, {c}, {d}, {e}, {f}, {g}, {dp}}</t>
+  </si>
+  <si>
+    <t>{43, 2+1} = {43, 3}</t>
+  </si>
+  <si>
+    <t>{45, 8+4+2} = {45, E}</t>
+  </si>
+  <si>
+    <t>{43,7}</t>
+  </si>
+  <si>
+    <t>{43,6}</t>
+  </si>
+  <si>
+    <t>{43,3}</t>
+  </si>
+  <si>
+    <t>{43,5}</t>
+  </si>
+  <si>
+    <t>{43,0}</t>
+  </si>
+  <si>
+    <t>{45,D}</t>
+  </si>
+  <si>
+    <t>{45,E}</t>
+  </si>
+  <si>
+    <t>{45,A}</t>
+  </si>
+  <si>
+    <t>{45,3}</t>
+  </si>
+  <si>
+    <t>{45,B}</t>
+  </si>
+  <si>
+    <t>{45,F}</t>
+  </si>
+  <si>
+    <t>{45,0}</t>
+  </si>
+  <si>
+    <t>digitRight[8][2] = {{43,1},{43,2},{43,4},{45,8},{45,4},{45,1},{45,2},{43,8}}</t>
+  </si>
+  <si>
+    <t>digitMiddle[8][2]={{47,1},{47,2},{47,4},{49,8},{49,4},{49,1},{49,2},{47,8}}</t>
+  </si>
+  <si>
+    <t>digitLeft[8][2]={{4B,1},{4B,2},{4B,4},{4D,8},{4D,4},{4D,1},{4D,2},{4B,8}}</t>
+  </si>
+  <si>
+    <t>hence write 3 to address 43, and E to address 45 and a 2 will appear on the right digit of the left set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So the digits "font" for numbers for the right digit of the left set is: </t>
+  </si>
+  <si>
+    <t>In general:</t>
+  </si>
+  <si>
+    <t>{Add_H_1,7}</t>
+  </si>
+  <si>
+    <t>{Add_H_1,6}</t>
+  </si>
+  <si>
+    <t>{Add_H_1,3}</t>
+  </si>
+  <si>
+    <t>{Add_H_1,5}</t>
+  </si>
+  <si>
+    <t>{Add_H_1,0}</t>
+  </si>
+  <si>
+    <t>{Add_H_1,8}</t>
+  </si>
+  <si>
+    <t>{Add_H_2,D}</t>
+  </si>
+  <si>
+    <t>{Add_H_2,E}</t>
+  </si>
+  <si>
+    <t>{Add_H_2,A}</t>
+  </si>
+  <si>
+    <t>{Add_H_2,3}</t>
+  </si>
+  <si>
+    <t>{Add_H_2,B}</t>
+  </si>
+  <si>
+    <t>{Add_H_2,F}</t>
+  </si>
+  <si>
+    <t>{Add_H_2,0}</t>
+  </si>
+  <si>
+    <t>right - RH</t>
+  </si>
+  <si>
+    <t>left - LH</t>
+  </si>
+  <si>
+    <t>Mid - LH</t>
+  </si>
+  <si>
+    <t>right - LH</t>
+  </si>
+  <si>
+    <t>left - RH</t>
+  </si>
+  <si>
+    <t>mid - RH</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>OR in terms of "C"arrays:</t>
   </si>
 </sst>
 </file>
@@ -350,7 +705,7 @@
     <numFmt numFmtId="164" formatCode="0000"/>
     <numFmt numFmtId="165" formatCode="0000\ 0000\ 0000\ 0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,8 +726,75 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,8 +818,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -589,12 +1037,367 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -665,9 +1468,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,10 +1529,137 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1170,6 +2097,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>703385</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>175847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>622918</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>80514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A4888F-D5FA-46FF-B3F7-A293B97ACAB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13759962" y="12382501"/>
+          <a:ext cx="4828571" cy="666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>131884</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>492078</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>94122</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DE69AC-B4CC-426C-BF8A-D71DD0AC0CE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11224846" y="12367847"/>
+          <a:ext cx="2323809" cy="3171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>827943</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>117232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>328428</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>2873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD2F369-35A3-4C22-9995-C3D5BF49A26E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15848135" y="2784232"/>
+          <a:ext cx="4409524" cy="6333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1467,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA4561C-6CDC-42D9-8D4E-1FA80314A565}">
-  <dimension ref="A2:Z79"/>
+  <dimension ref="A2:Z81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,7 +2544,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="98" t="s">
         <v>88</v>
       </c>
       <c r="J2" s="11"/>
@@ -1529,22 +2593,22 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
     </row>
     <row r="5" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="16" t="s">
@@ -1563,39 +2627,39 @@
         <v>86</v>
       </c>
       <c r="J5" s="11"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>0</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <f t="shared" ref="E6:E41" si="0">LEN(D6)</f>
         <v>8</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <f>HLOOKUP(MID($D6,1,1), data,4,FALSE)+HLOOKUP(MID($D6,2,1), data,4,FALSE)+HLOOKUP(MID($D6,3,1), data,4,FALSE)+HLOOKUP(MID($D6,4,1), data,4,FALSE)+HLOOKUP(MID($D6,5,1), data,4,FALSE)+HLOOKUP(MID($D6,6,1), data,4,FALSE)+HLOOKUP(MID($D6,7,1), data,4,FALSE)+HLOOKUP(MID($D6,8,1), data,4,FALSE)</f>
         <v>59973</v>
       </c>
-      <c r="G6" s="27" t="str">
+      <c r="G6" s="26" t="str">
         <f t="shared" ref="G6:G41" si="1">DEC2HEX(F6)</f>
         <v>EA45</v>
       </c>
@@ -1615,7 +2679,7 @@
         <f>HLOOKUP(MID($D7,1,1), data,4,FALSE)+HLOOKUP(MID($D7,2,1), data,4,FALSE)+HLOOKUP(MID($D7,3,1), data,4,FALSE)</f>
         <v>69</v>
       </c>
-      <c r="G7" s="28" t="str">
+      <c r="G7" s="27" t="str">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -1635,7 +2699,7 @@
         <f>HLOOKUP(MID($D8,1,1), data,4,FALSE)+HLOOKUP(MID($D8,2,1), data,4,FALSE)+HLOOKUP(MID($D8,3,1), data,4,FALSE)+HLOOKUP(MID($D8,4,1), data,4,FALSE)+HLOOKUP(MID($D8,5,1), data,4,FALSE)+HLOOKUP(MID($D8,6,1), data,4,FALSE)</f>
         <v>53772</v>
       </c>
-      <c r="G8" s="28" t="str">
+      <c r="G8" s="27" t="str">
         <f t="shared" si="1"/>
         <v>D20C</v>
       </c>
@@ -1655,7 +2719,7 @@
         <f>HLOOKUP(MID($D9,1,1), data,4,FALSE)+HLOOKUP(MID($D9,2,1), data,4,FALSE)+HLOOKUP(MID($D9,3,1), data,4,FALSE)+HLOOKUP(MID($D9,4,1), data,4,FALSE)+HLOOKUP(MID($D9,5,1), data,4,FALSE)</f>
         <v>33356</v>
       </c>
-      <c r="G9" s="28" t="str">
+      <c r="G9" s="27" t="str">
         <f t="shared" si="1"/>
         <v>824C</v>
       </c>
@@ -1675,7 +2739,7 @@
         <f>HLOOKUP(MID($D10,1,1), data,4,FALSE)+HLOOKUP(MID($D10,2,1), data,4,FALSE)+HLOOKUP(MID($D10,3,1), data,4,FALSE)+HLOOKUP(MID($D10,4,1), data,4,FALSE)+HLOOKUP(MID($D10,5,1), data,4,FALSE)</f>
         <v>6220</v>
       </c>
-      <c r="G10" s="28" t="str">
+      <c r="G10" s="27" t="str">
         <f t="shared" si="1"/>
         <v>184C</v>
       </c>
@@ -1695,7 +2759,7 @@
         <f>HLOOKUP(MID($D11,1,1), data,4,FALSE)+HLOOKUP(MID($D11,2,1), data,4,FALSE)+HLOOKUP(MID($D11,3,1), data,4,FALSE)+HLOOKUP(MID($D11,4,1), data,4,FALSE)+HLOOKUP(MID($D11,5,1), data,4,FALSE)</f>
         <v>39440</v>
       </c>
-      <c r="G11" s="28" t="str">
+      <c r="G11" s="27" t="str">
         <f t="shared" si="1"/>
         <v>9A10</v>
       </c>
@@ -1715,7 +2779,7 @@
         <f>HLOOKUP(MID($D12,1,1), data,4,FALSE)+HLOOKUP(MID($D12,2,1), data,4,FALSE)+HLOOKUP(MID($D12,3,1), data,4,FALSE)+HLOOKUP(MID($D12,4,1), data,4,FALSE)+HLOOKUP(MID($D12,5,1), data,4,FALSE)+HLOOKUP(MID($D12,6,1), data,4,FALSE)+HLOOKUP(MID($D12,7,1), data,4,FALSE)</f>
         <v>55880</v>
       </c>
-      <c r="G12" s="28" t="str">
+      <c r="G12" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DA48</v>
       </c>
@@ -1735,7 +2799,7 @@
         <f>HLOOKUP(MID($D13,1,1), data,4,FALSE)+HLOOKUP(MID($D13,2,1), data,4,FALSE)+HLOOKUP(MID($D13,3,1), data,4,FALSE)</f>
         <v>580</v>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="27" t="str">
         <f t="shared" si="1"/>
         <v>244</v>
       </c>
@@ -1755,7 +2819,7 @@
         <f>HLOOKUP(MID($D14,1,1), data,4,FALSE)+HLOOKUP(MID($D14,2,1), data,4,FALSE)+HLOOKUP(MID($D14,3,1), data,4,FALSE)+HLOOKUP(MID($D14,4,1), data,4,FALSE)+HLOOKUP(MID($D14,5,1), data,4,FALSE)+HLOOKUP(MID($D14,6,1), data,4,FALSE)+HLOOKUP(MID($D14,7,1), data,4,FALSE)+HLOOKUP(MID($D14,8,1), data,4,FALSE)</f>
         <v>55884</v>
       </c>
-      <c r="G14" s="28" t="str">
+      <c r="G14" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DA4C</v>
       </c>
@@ -1775,7 +2839,7 @@
         <f>HLOOKUP(MID($D15,1,1), data,4,FALSE)+HLOOKUP(MID($D15,2,1), data,4,FALSE)+HLOOKUP(MID($D15,3,1), data,4,FALSE)+HLOOKUP(MID($D15,4,1), data,4,FALSE)+HLOOKUP(MID($D15,5,1), data,4,FALSE)+HLOOKUP(MID($D15,6,1), data,4,FALSE)+HLOOKUP(MID($D15,7,1), data,4,FALSE)</f>
         <v>39500</v>
       </c>
-      <c r="G15" s="28" t="str">
+      <c r="G15" s="27" t="str">
         <f t="shared" si="1"/>
         <v>9A4C</v>
       </c>
@@ -1795,7 +2859,7 @@
         <f>HLOOKUP(MID($D16,1,1), data,4,FALSE)+HLOOKUP(MID($D16,2,1), data,4,FALSE)+HLOOKUP(MID($D16,3,1), data,4,FALSE)+HLOOKUP(MID($D16,4,1), data,4,FALSE)+HLOOKUP(MID($D16,5,1), data,4,FALSE)+HLOOKUP(MID($D16,6,1), data,4,FALSE)+HLOOKUP(MID($D16,7,1), data,4,FALSE)</f>
         <v>23116</v>
       </c>
-      <c r="G16" s="28" t="str">
+      <c r="G16" s="27" t="str">
         <f t="shared" si="1"/>
         <v>5A4C</v>
       </c>
@@ -1815,7 +2879,7 @@
         <f>HLOOKUP(MID($D17,1,1), data,4,FALSE)+HLOOKUP(MID($D17,2,1), data,4,FALSE)+HLOOKUP(MID($D17,3,1), data,4,FALSE)+HLOOKUP(MID($D17,4,1), data,4,FALSE)+HLOOKUP(MID($D17,5,1), data,4,FALSE)+HLOOKUP(MID($D17,6,1), data,4,FALSE)+HLOOKUP(MID($D17,7,1), data,4,FALSE)</f>
         <v>33644</v>
       </c>
-      <c r="G17" s="28" t="str">
+      <c r="G17" s="27" t="str">
         <f t="shared" si="1"/>
         <v>836C</v>
       </c>
@@ -1835,7 +2899,7 @@
         <f>HLOOKUP(MID($D18,1,1), data,4,FALSE)+HLOOKUP(MID($D18,2,1), data,4,FALSE)+HLOOKUP(MID($D18,3,1), data,4,FALSE)+HLOOKUP(MID($D18,4,1), data,4,FALSE)</f>
         <v>51712</v>
       </c>
-      <c r="G18" s="28" t="str">
+      <c r="G18" s="27" t="str">
         <f t="shared" si="1"/>
         <v>CA00</v>
       </c>
@@ -1855,7 +2919,7 @@
         <f>HLOOKUP(MID($D19,1,1), data,4,FALSE)+HLOOKUP(MID($D19,2,1), data,4,FALSE)+HLOOKUP(MID($D19,3,1), data,4,FALSE)+HLOOKUP(MID($D19,4,1), data,4,FALSE)+HLOOKUP(MID($D19,5,1), data,4,FALSE)+HLOOKUP(MID($D19,6,1), data,4,FALSE)</f>
         <v>33636</v>
       </c>
-      <c r="G19" s="28" t="str">
+      <c r="G19" s="27" t="str">
         <f t="shared" si="1"/>
         <v>8364</v>
       </c>
@@ -1875,7 +2939,7 @@
         <f>HLOOKUP(MID($D20,1,1), data,4,FALSE)+HLOOKUP(MID($D20,2,1), data,4,FALSE)+HLOOKUP(MID($D20,3,1), data,4,FALSE)+HLOOKUP(MID($D20,4,1), data,4,FALSE)+HLOOKUP(MID($D20,5,1), data,4,FALSE)</f>
         <v>55808</v>
       </c>
-      <c r="G20" s="28" t="str">
+      <c r="G20" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DA00</v>
       </c>
@@ -1895,7 +2959,7 @@
         <f>HLOOKUP(MID($D21,1,1), data,4,FALSE)+HLOOKUP(MID($D21,2,1), data,4,FALSE)+HLOOKUP(MID($D21,3,1), data,4,FALSE)+HLOOKUP(MID($D21,4,1), data,4,FALSE)</f>
         <v>23040</v>
       </c>
-      <c r="G21" s="28" t="str">
+      <c r="G21" s="27" t="str">
         <f t="shared" si="1"/>
         <v>5A00</v>
       </c>
@@ -1915,7 +2979,7 @@
         <f>HLOOKUP(MID($D22,1,1), data,4,FALSE)+HLOOKUP(MID($D22,2,1), data,4,FALSE)+HLOOKUP(MID($D22,3,1), data,4,FALSE)+HLOOKUP(MID($D22,4,1), data,4,FALSE)+HLOOKUP(MID($D22,5,1), data,4,FALSE)+HLOOKUP(MID($D22,6,1), data,4,FALSE)</f>
         <v>51784</v>
       </c>
-      <c r="G22" s="28" t="str">
+      <c r="G22" s="27" t="str">
         <f t="shared" si="1"/>
         <v>CA48</v>
       </c>
@@ -1935,7 +2999,7 @@
         <f>HLOOKUP(MID($D23,1,1), data,4,FALSE)+HLOOKUP(MID($D23,2,1), data,4,FALSE)+HLOOKUP(MID($D23,3,1), data,4,FALSE)+HLOOKUP(MID($D23,4,1), data,4,FALSE)+HLOOKUP(MID($D23,5,1), data,4,FALSE)+HLOOKUP(MID($D23,6,1), data,4,FALSE)</f>
         <v>22604</v>
       </c>
-      <c r="G23" s="28" t="str">
+      <c r="G23" s="27" t="str">
         <f t="shared" si="1"/>
         <v>584C</v>
       </c>
@@ -1955,7 +3019,7 @@
         <f>HLOOKUP(MID($D24,1,1), data,4,FALSE)+HLOOKUP(MID($D24,2,1), data,4,FALSE)+HLOOKUP(MID($D24,3,1), data,4,FALSE)+HLOOKUP(MID($D24,4,1), data,4,FALSE)</f>
         <v>33568</v>
       </c>
-      <c r="G24" s="28" t="str">
+      <c r="G24" s="27" t="str">
         <f t="shared" si="1"/>
         <v>8320</v>
       </c>
@@ -1975,7 +3039,7 @@
         <f>HLOOKUP(MID($D25,1,1), data,4,FALSE)+HLOOKUP(MID($D25,2,1), data,4,FALSE)+HLOOKUP(MID($D25,3,1), data,4,FALSE)+HLOOKUP(MID($D25,4,1), data,4,FALSE)</f>
         <v>49220</v>
       </c>
-      <c r="G25" s="28" t="str">
+      <c r="G25" s="27" t="str">
         <f t="shared" si="1"/>
         <v>C044</v>
       </c>
@@ -1995,7 +3059,7 @@
         <f>HLOOKUP(MID($D26,1,1), data,4,FALSE)+HLOOKUP(MID($D26,2,1), data,4,FALSE)+HLOOKUP(MID($D26,3,1), data,4,FALSE)+HLOOKUP(MID($D26,4,1), data,4,FALSE)+HLOOKUP(MID($D26,5,1), data,4,FALSE)</f>
         <v>22545</v>
       </c>
-      <c r="G26" s="28" t="str">
+      <c r="G26" s="27" t="str">
         <f t="shared" si="1"/>
         <v>5811</v>
       </c>
@@ -2015,7 +3079,7 @@
         <f>HLOOKUP(MID($D27,1,1), data,4,FALSE)+HLOOKUP(MID($D27,2,1), data,4,FALSE)+HLOOKUP(MID($D27,3,1), data,4,FALSE)</f>
         <v>51200</v>
       </c>
-      <c r="G27" s="28" t="str">
+      <c r="G27" s="27" t="str">
         <f t="shared" si="1"/>
         <v>C800</v>
       </c>
@@ -2035,7 +3099,7 @@
         <f>HLOOKUP(MID($D28,1,1), data,4,FALSE)+HLOOKUP(MID($D28,2,1), data,4,FALSE)+HLOOKUP(MID($D28,3,1), data,4,FALSE)+HLOOKUP(MID($D28,4,1), data,4,FALSE)+HLOOKUP(MID($D28,5,1), data,4,FALSE)+HLOOKUP(MID($D28,6,1), data,4,FALSE)</f>
         <v>19525</v>
       </c>
-      <c r="G28" s="28" t="str">
+      <c r="G28" s="27" t="str">
         <f t="shared" si="1"/>
         <v>4C45</v>
       </c>
@@ -2055,7 +3119,7 @@
         <f>HLOOKUP(MID($D29,1,1), data,4,FALSE)+HLOOKUP(MID($D29,2,1), data,4,FALSE)+HLOOKUP(MID($D29,3,1), data,4,FALSE)+HLOOKUP(MID($D29,4,1), data,4,FALSE)+HLOOKUP(MID($D29,5,1), data,4,FALSE)+HLOOKUP(MID($D29,6,1), data,4,FALSE)</f>
         <v>19540</v>
       </c>
-      <c r="G29" s="28" t="str">
+      <c r="G29" s="27" t="str">
         <f t="shared" si="1"/>
         <v>4C54</v>
       </c>
@@ -2075,7 +3139,7 @@
         <f>HLOOKUP(MID($D30,1,1), data,4,FALSE)+HLOOKUP(MID($D30,2,1), data,4,FALSE)+HLOOKUP(MID($D30,3,1), data,4,FALSE)+HLOOKUP(MID($D30,4,1), data,4,FALSE)+HLOOKUP(MID($D30,5,1), data,4,FALSE)+HLOOKUP(MID($D30,6,1), data,4,FALSE)</f>
         <v>51780</v>
       </c>
-      <c r="G30" s="28" t="str">
+      <c r="G30" s="27" t="str">
         <f t="shared" si="1"/>
         <v>CA44</v>
       </c>
@@ -2095,7 +3159,7 @@
         <f>HLOOKUP(MID($D31,1,1), data,4,FALSE)+HLOOKUP(MID($D31,2,1), data,4,FALSE)+HLOOKUP(MID($D31,3,1), data,4,FALSE)+HLOOKUP(MID($D31,4,1), data,4,FALSE)+HLOOKUP(MID($D31,5,1), data,4,FALSE)+HLOOKUP(MID($D31,6,1), data,4,FALSE)</f>
         <v>23052</v>
       </c>
-      <c r="G31" s="28" t="str">
+      <c r="G31" s="27" t="str">
         <f t="shared" si="1"/>
         <v>5A0C</v>
       </c>
@@ -2115,7 +3179,7 @@
         <f>HLOOKUP(MID($D32,1,1), data,4,FALSE)+HLOOKUP(MID($D32,2,1), data,4,FALSE)+HLOOKUP(MID($D32,3,1), data,4,FALSE)+HLOOKUP(MID($D32,4,1), data,4,FALSE)+HLOOKUP(MID($D32,5,1), data,4,FALSE)+HLOOKUP(MID($D32,6,1), data,4,FALSE)+HLOOKUP(MID($D32,7,1), data,4,FALSE)</f>
         <v>51796</v>
       </c>
-      <c r="G32" s="28" t="str">
+      <c r="G32" s="27" t="str">
         <f t="shared" si="1"/>
         <v>CA54</v>
       </c>
@@ -2135,7 +3199,7 @@
         <f>HLOOKUP(MID($D33,1,1), data,4,FALSE)+HLOOKUP(MID($D33,2,1), data,4,FALSE)+HLOOKUP(MID($D33,3,1), data,4,FALSE)+HLOOKUP(MID($D33,4,1), data,4,FALSE)+HLOOKUP(MID($D33,5,1), data,4,FALSE)+HLOOKUP(MID($D33,6,1), data,4,FALSE)+HLOOKUP(MID($D33,7,1), data,4,FALSE)</f>
         <v>23068</v>
       </c>
-      <c r="G33" s="28" t="str">
+      <c r="G33" s="27" t="str">
         <f t="shared" si="1"/>
         <v>5A1C</v>
       </c>
@@ -2155,7 +3219,7 @@
         <f>HLOOKUP(MID($D34,1,1), data,4,FALSE)+HLOOKUP(MID($D34,2,1), data,4,FALSE)+HLOOKUP(MID($D34,3,1), data,4,FALSE)+HLOOKUP(MID($D34,4,1), data,4,FALSE)+HLOOKUP(MID($D34,5,1), data,4,FALSE)+HLOOKUP(MID($D34,6,1), data,4,FALSE)</f>
         <v>39496</v>
       </c>
-      <c r="G34" s="28" t="str">
+      <c r="G34" s="27" t="str">
         <f t="shared" si="1"/>
         <v>9A48</v>
       </c>
@@ -2175,7 +3239,7 @@
         <f>HLOOKUP(MID($D35,1,1), data,4,FALSE)+HLOOKUP(MID($D35,2,1), data,4,FALSE)+HLOOKUP(MID($D35,3,1), data,4,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="G35" s="28" t="str">
+      <c r="G35" s="27" t="str">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
@@ -2195,7 +3259,7 @@
         <f>HLOOKUP(MID($D36,1,1), data,4,FALSE)+HLOOKUP(MID($D36,2,1), data,4,FALSE)+HLOOKUP(MID($D36,3,1), data,4,FALSE)+HLOOKUP(MID($D36,4,1), data,4,FALSE)+HLOOKUP(MID($D36,5,1), data,4,FALSE)</f>
         <v>51268</v>
       </c>
-      <c r="G36" s="28" t="str">
+      <c r="G36" s="27" t="str">
         <f t="shared" si="1"/>
         <v>C844</v>
       </c>
@@ -2215,7 +3279,7 @@
         <f>HLOOKUP(MID($D37,1,1), data,4,FALSE)+HLOOKUP(MID($D37,2,1), data,4,FALSE)+HLOOKUP(MID($D37,3,1), data,4,FALSE)+HLOOKUP(MID($D37,4,1), data,4,FALSE)</f>
         <v>26625</v>
       </c>
-      <c r="G37" s="28" t="str">
+      <c r="G37" s="27" t="str">
         <f t="shared" si="1"/>
         <v>6801</v>
       </c>
@@ -2235,7 +3299,7 @@
         <f>HLOOKUP(MID($D38,1,1), data,4,FALSE)+HLOOKUP(MID($D38,2,1), data,4,FALSE)+HLOOKUP(MID($D38,3,1), data,4,FALSE)+HLOOKUP(MID($D38,4,1), data,4,FALSE)+HLOOKUP(MID($D38,5,1), data,4,FALSE)+HLOOKUP(MID($D38,6,1), data,4,FALSE)</f>
         <v>26708</v>
       </c>
-      <c r="G38" s="28" t="str">
+      <c r="G38" s="27" t="str">
         <f t="shared" si="1"/>
         <v>6854</v>
       </c>
@@ -2255,7 +3319,7 @@
         <f>HLOOKUP(MID($D39,1,1), data,4,FALSE)+HLOOKUP(MID($D39,2,1), data,4,FALSE)+HLOOKUP(MID($D39,3,1), data,4,FALSE)+HLOOKUP(MID($D39,4,1), data,4,FALSE)</f>
         <v>9233</v>
       </c>
-      <c r="G39" s="28" t="str">
+      <c r="G39" s="27" t="str">
         <f t="shared" si="1"/>
         <v>2411</v>
       </c>
@@ -2275,7 +3339,7 @@
         <f>HLOOKUP(MID($D40,1,1), data,4,FALSE)+HLOOKUP(MID($D40,2,1), data,4,FALSE)+HLOOKUP(MID($D40,3,1), data,4,FALSE)+HLOOKUP(MID($D40,4,1), data,4,FALSE)+HLOOKUP(MID($D40,5,1), data,4,FALSE)+HLOOKUP(MID($D40,6,1), data,4,FALSE)</f>
         <v>38988</v>
       </c>
-      <c r="G40" s="28" t="str">
+      <c r="G40" s="27" t="str">
         <f t="shared" si="1"/>
         <v>984C</v>
       </c>
@@ -2295,107 +3359,148 @@
         <f>HLOOKUP(MID($D41,1,1), data,4,FALSE)+HLOOKUP(MID($D41,2,1), data,4,FALSE)+HLOOKUP(MID($D41,3,1), data,4,FALSE)+HLOOKUP(MID($D41,4,1), data,4,FALSE)</f>
         <v>41473</v>
       </c>
-      <c r="G41" s="28" t="str">
+      <c r="G41" s="27" t="str">
         <f t="shared" si="1"/>
         <v>A201</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="E42" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42" s="11">
-        <v>0</v>
-      </c>
-      <c r="G42" s="28">
-        <v>0</v>
+        <f>HLOOKUP(MID($D42,1,1), data,4,FALSE)+HLOOKUP(MID($D42,2,1), data,4,FALSE)+HLOOKUP("dec pt", data,4,FALSE)</f>
+        <v>196</v>
+      </c>
+      <c r="G42" s="27" t="str">
+        <f t="shared" ref="G42" si="2">DEC2HEX(F42)</f>
+        <v>C4</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+      <c r="G43" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="11">
+        <v>1</v>
+      </c>
+      <c r="F44" s="11">
+        <f>HLOOKUP("dec pt", data,4,FALSE)</f>
+        <v>128</v>
+      </c>
+      <c r="G44" s="27" t="str">
+        <f t="shared" ref="G44" si="3">DEC2HEX(F44)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D45" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="11">
-        <f t="shared" ref="E43:E45" si="2">LEN(D43)</f>
+      <c r="E45" s="11">
+        <f t="shared" ref="E45:E47" si="4">LEN(D45)</f>
         <v>1</v>
       </c>
-      <c r="F43" s="11">
-        <f>HLOOKUP(MID($D43,1,1), data,4,FALSE)</f>
+      <c r="F45" s="11">
+        <f>HLOOKUP(MID($D45,1,1), data,4,FALSE)</f>
         <v>32768</v>
       </c>
-      <c r="G43" s="28" t="str">
-        <f t="shared" ref="G43:G45" si="3">DEC2HEX(F43)</f>
+      <c r="G45" s="27" t="str">
+        <f t="shared" ref="G45:G47" si="5">DEC2HEX(F45)</f>
         <v>8000</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="36" t="s">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D46" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="37">
-        <f t="shared" si="2"/>
+      <c r="E46" s="36">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F44" s="11">
-        <f>HLOOKUP(MID($D44,1,1), data,4,FALSE)+HLOOKUP(MID($D44,2,1), data,4,FALSE)</f>
+      <c r="F46" s="11">
+        <f>HLOOKUP(MID($D46,1,1), data,4,FALSE)+HLOOKUP(MID($D46,2,1), data,4,FALSE)</f>
         <v>4104</v>
       </c>
-      <c r="G44" s="28" t="str">
-        <f t="shared" si="3"/>
+      <c r="G46" s="27" t="str">
+        <f t="shared" si="5"/>
         <v>1008</v>
       </c>
     </row>
-    <row r="45" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="38" t="s">
+    <row r="47" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D47" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="39">
-        <f t="shared" si="2"/>
+      <c r="E47" s="38">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F45" s="12">
-        <f>HLOOKUP(MID($D45,1,1), data,4,FALSE)+HLOOKUP(MID($D45,2,1), data,4,FALSE)+HLOOKUP(MID($D45,3,1), data,4,FALSE)+HLOOKUP(MID($D45,4,1), data,4,FALSE)</f>
+      <c r="F47" s="12">
+        <f>HLOOKUP(MID($D47,1,1), data,4,FALSE)+HLOOKUP(MID($D47,2,1), data,4,FALSE)+HLOOKUP(MID($D47,3,1), data,4,FALSE)+HLOOKUP(MID($D47,4,1), data,4,FALSE)</f>
         <v>4392</v>
       </c>
-      <c r="G45" s="29" t="str">
-        <f t="shared" si="3"/>
+      <c r="G47" s="28" t="str">
+        <f t="shared" si="5"/>
         <v>1128</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78">
-        <v>15</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79">
-        <f>C77/C78</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <f>C79/C80</f>
         <v>4.2666666666666666</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{06216120-7DEF-470E-9609-B87C85DBA4AB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2403,8 +3508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AE2AE5-585E-46C7-A35F-DFF53999FE9F}">
   <dimension ref="B1:AA93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,7 +3518,7 @@
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" customWidth="1"/>
     <col min="8" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="42"/>
+    <col min="11" max="11" width="9.140625" style="41"/>
     <col min="12" max="16" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="25" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="24.85546875" bestFit="1" customWidth="1"/>
@@ -2437,10 +3542,10 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="32" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="6"/>
@@ -2488,10 +3593,10 @@
       </c>
     </row>
     <row r="3" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="32">
         <v>1</v>
       </c>
       <c r="M3" s="1">
@@ -2545,10 +3650,10 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="31">
         <f>1</f>
         <v>1</v>
       </c>
@@ -2618,7 +3723,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="41" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="19">
@@ -2687,12 +3792,12 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -2710,28 +3815,28 @@
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41" t="s">
+      <c r="G8" s="40"/>
+      <c r="H8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="40" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2755,7 +3860,7 @@
         <f t="shared" ref="J9:J17" si="4">HEX2BIN(H9,6)</f>
         <v>000000</v>
       </c>
-      <c r="K9" s="43"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -2774,7 +3879,7 @@
         <f t="shared" si="4"/>
         <v>000001</v>
       </c>
-      <c r="K10" s="43"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -2793,7 +3898,7 @@
         <f t="shared" si="4"/>
         <v>000010</v>
       </c>
-      <c r="K11" s="43"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="12" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
@@ -2812,7 +3917,7 @@
         <f t="shared" si="4"/>
         <v>000011</v>
       </c>
-      <c r="K12" s="43"/>
+      <c r="K12" s="42"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
@@ -2834,7 +3939,7 @@
         <f t="shared" si="4"/>
         <v>000100</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="43"/>
       <c r="L13" s="21" t="str">
         <f>MID(TEXT(L$4,"0000000000000000"),13,4)</f>
         <v>0001</v>
@@ -2913,7 +4018,7 @@
         <f t="shared" si="4"/>
         <v>000101</v>
       </c>
-      <c r="K14" s="43"/>
+      <c r="K14" s="42"/>
       <c r="L14" s="22" t="str">
         <f>MID(TEXT(L$4,"0000000000000000"),9,4)</f>
         <v>0000</v>
@@ -2992,7 +4097,7 @@
         <f t="shared" si="4"/>
         <v>000110</v>
       </c>
-      <c r="K15" s="43"/>
+      <c r="K15" s="42"/>
       <c r="L15" s="22" t="str">
         <f>MID(TEXT(L$4,"0000000000000000"),5,4)</f>
         <v>0000</v>
@@ -3071,7 +4176,7 @@
         <f t="shared" si="4"/>
         <v>000111</v>
       </c>
-      <c r="K16" s="43"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="23" t="str">
         <f>MID(TEXT(L$4,"0000000000000000"),1,4)</f>
         <v>0000</v>
@@ -3153,7 +4258,7 @@
         <f t="shared" si="4"/>
         <v>001000</v>
       </c>
-      <c r="K17" s="44"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="3" t="str">
         <f>MID(TEXT(L$4,"0000000000000000"),13,4)</f>
         <v>0001</v>
@@ -3232,7 +4337,7 @@
         <f t="shared" ref="J18:J72" si="10">HEX2BIN(H18,6)</f>
         <v>001001</v>
       </c>
-      <c r="K18" s="43"/>
+      <c r="K18" s="42"/>
       <c r="L18" s="3" t="str">
         <f>MID(TEXT(L$4,"0000000000000000"),9,4)</f>
         <v>0000</v>
@@ -3311,7 +4416,7 @@
         <f t="shared" si="10"/>
         <v>001010</v>
       </c>
-      <c r="K19" s="43"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="3" t="str">
         <f>MID(TEXT(L$4,"0000000000000000"),5,4)</f>
         <v>0000</v>
@@ -3390,7 +4495,7 @@
         <f t="shared" si="10"/>
         <v>001011</v>
       </c>
-      <c r="K20" s="43"/>
+      <c r="K20" s="42"/>
       <c r="L20" s="3" t="str">
         <f>MID(TEXT(L$4,"0000000000000000"),1,4)</f>
         <v>0000</v>
@@ -3472,7 +4577,7 @@
         <f t="shared" si="10"/>
         <v>001100</v>
       </c>
-      <c r="K21" s="44"/>
+      <c r="K21" s="43"/>
       <c r="L21" s="3" t="s">
         <v>89</v>
       </c>
@@ -3508,7 +4613,7 @@
         <f t="shared" si="10"/>
         <v>001101</v>
       </c>
-      <c r="K22" s="43"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -3542,7 +4647,7 @@
         <f t="shared" si="10"/>
         <v>001110</v>
       </c>
-      <c r="K23" s="43"/>
+      <c r="K23" s="42"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -3576,7 +4681,7 @@
         <f t="shared" si="10"/>
         <v>001111</v>
       </c>
-      <c r="K24" s="43"/>
+      <c r="K24" s="42"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -3608,7 +4713,7 @@
         <f t="shared" si="10"/>
         <v>010000</v>
       </c>
-      <c r="K25" s="44"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3637,7 +4742,7 @@
         <f t="shared" si="10"/>
         <v>010001</v>
       </c>
-      <c r="K26" s="43"/>
+      <c r="K26" s="42"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -3666,7 +4771,7 @@
         <f t="shared" si="10"/>
         <v>010010</v>
       </c>
-      <c r="K27" s="43"/>
+      <c r="K27" s="42"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -3695,7 +4800,7 @@
         <f t="shared" si="10"/>
         <v>010011</v>
       </c>
-      <c r="K28" s="43"/>
+      <c r="K28" s="42"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -3727,7 +4832,7 @@
         <f t="shared" si="10"/>
         <v>010100</v>
       </c>
-      <c r="K29" s="44"/>
+      <c r="K29" s="43"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -3756,7 +4861,7 @@
         <f t="shared" si="10"/>
         <v>010101</v>
       </c>
-      <c r="K30" s="43"/>
+      <c r="K30" s="42"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -3785,7 +4890,7 @@
         <f t="shared" si="10"/>
         <v>010110</v>
       </c>
-      <c r="K31" s="43"/>
+      <c r="K31" s="42"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -3814,7 +4919,7 @@
         <f t="shared" si="10"/>
         <v>010111</v>
       </c>
-      <c r="K32" s="43"/>
+      <c r="K32" s="42"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -3846,7 +4951,7 @@
         <f t="shared" si="10"/>
         <v>011000</v>
       </c>
-      <c r="K33" s="44"/>
+      <c r="K33" s="43"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -3875,7 +4980,7 @@
         <f t="shared" si="10"/>
         <v>011001</v>
       </c>
-      <c r="K34" s="43"/>
+      <c r="K34" s="42"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -3904,7 +5009,7 @@
         <f t="shared" si="10"/>
         <v>011010</v>
       </c>
-      <c r="K35" s="43"/>
+      <c r="K35" s="42"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -3933,7 +5038,7 @@
         <f t="shared" si="10"/>
         <v>011011</v>
       </c>
-      <c r="K36" s="43"/>
+      <c r="K36" s="42"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -3965,7 +5070,7 @@
         <f t="shared" si="10"/>
         <v>011100</v>
       </c>
-      <c r="K37" s="44"/>
+      <c r="K37" s="43"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -3994,7 +5099,7 @@
         <f t="shared" si="10"/>
         <v>011101</v>
       </c>
-      <c r="K38" s="43"/>
+      <c r="K38" s="42"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -4023,7 +5128,7 @@
         <f t="shared" si="10"/>
         <v>011110</v>
       </c>
-      <c r="K39" s="43"/>
+      <c r="K39" s="42"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -4052,7 +5157,7 @@
         <f t="shared" si="10"/>
         <v>011111</v>
       </c>
-      <c r="K40" s="43"/>
+      <c r="K40" s="42"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -4084,7 +5189,7 @@
         <f t="shared" si="10"/>
         <v>100000</v>
       </c>
-      <c r="K41" s="43"/>
+      <c r="K41" s="42"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -4113,7 +5218,7 @@
         <f t="shared" si="10"/>
         <v>100001</v>
       </c>
-      <c r="K42" s="43"/>
+      <c r="K42" s="42"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -4142,7 +5247,7 @@
         <f t="shared" si="10"/>
         <v>100010</v>
       </c>
-      <c r="K43" s="43"/>
+      <c r="K43" s="42"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -4171,7 +5276,7 @@
         <f t="shared" si="10"/>
         <v>100011</v>
       </c>
-      <c r="K44" s="43"/>
+      <c r="K44" s="42"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -4203,7 +5308,7 @@
         <f t="shared" si="10"/>
         <v>100100</v>
       </c>
-      <c r="K45" s="43"/>
+      <c r="K45" s="42"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -4232,7 +5337,7 @@
         <f t="shared" si="10"/>
         <v>100101</v>
       </c>
-      <c r="K46" s="43"/>
+      <c r="K46" s="42"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -4261,7 +5366,7 @@
         <f t="shared" si="10"/>
         <v>100110</v>
       </c>
-      <c r="K47" s="43"/>
+      <c r="K47" s="42"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -4290,7 +5395,7 @@
         <f t="shared" si="10"/>
         <v>100111</v>
       </c>
-      <c r="K48" s="43"/>
+      <c r="K48" s="42"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -4322,7 +5427,7 @@
         <f t="shared" si="10"/>
         <v>101000</v>
       </c>
-      <c r="K49" s="43"/>
+      <c r="K49" s="42"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -4351,7 +5456,7 @@
         <f t="shared" si="10"/>
         <v>101001</v>
       </c>
-      <c r="K50" s="43"/>
+      <c r="K50" s="42"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -4380,7 +5485,7 @@
         <f t="shared" si="10"/>
         <v>101010</v>
       </c>
-      <c r="K51" s="43"/>
+      <c r="K51" s="42"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -4409,7 +5514,7 @@
         <f t="shared" si="10"/>
         <v>101011</v>
       </c>
-      <c r="K52" s="43"/>
+      <c r="K52" s="42"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -4441,7 +5546,7 @@
         <f t="shared" si="10"/>
         <v>101100</v>
       </c>
-      <c r="K53" s="43"/>
+      <c r="K53" s="42"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -4470,7 +5575,7 @@
         <f t="shared" si="10"/>
         <v>101101</v>
       </c>
-      <c r="K54" s="43"/>
+      <c r="K54" s="42"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -4499,7 +5604,7 @@
         <f t="shared" si="10"/>
         <v>101110</v>
       </c>
-      <c r="K55" s="43"/>
+      <c r="K55" s="42"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -4528,7 +5633,7 @@
         <f t="shared" si="10"/>
         <v>101111</v>
       </c>
-      <c r="K56" s="43"/>
+      <c r="K56" s="42"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
@@ -4560,7 +5665,7 @@
         <f t="shared" si="10"/>
         <v>110000</v>
       </c>
-      <c r="K57" s="43"/>
+      <c r="K57" s="42"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
@@ -4589,7 +5694,7 @@
         <f t="shared" si="10"/>
         <v>110001</v>
       </c>
-      <c r="K58" s="43"/>
+      <c r="K58" s="42"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
@@ -4618,7 +5723,7 @@
         <f t="shared" si="10"/>
         <v>110010</v>
       </c>
-      <c r="K59" s="43"/>
+      <c r="K59" s="42"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
@@ -4647,7 +5752,7 @@
         <f t="shared" si="10"/>
         <v>110011</v>
       </c>
-      <c r="K60" s="43"/>
+      <c r="K60" s="42"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
@@ -4679,7 +5784,7 @@
         <f t="shared" si="10"/>
         <v>110100</v>
       </c>
-      <c r="K61" s="43"/>
+      <c r="K61" s="42"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -4708,7 +5813,7 @@
         <f t="shared" si="10"/>
         <v>110101</v>
       </c>
-      <c r="K62" s="43"/>
+      <c r="K62" s="42"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
@@ -4737,7 +5842,7 @@
         <f t="shared" si="10"/>
         <v>110110</v>
       </c>
-      <c r="K63" s="43"/>
+      <c r="K63" s="42"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -4766,7 +5871,7 @@
         <f t="shared" si="10"/>
         <v>110111</v>
       </c>
-      <c r="K64" s="43"/>
+      <c r="K64" s="42"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -4798,7 +5903,7 @@
         <f t="shared" si="10"/>
         <v>111000</v>
       </c>
-      <c r="K65" s="43"/>
+      <c r="K65" s="42"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -4827,7 +5932,7 @@
         <f t="shared" si="10"/>
         <v>111001</v>
       </c>
-      <c r="K66" s="43"/>
+      <c r="K66" s="42"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
@@ -4856,7 +5961,7 @@
         <f t="shared" si="10"/>
         <v>111010</v>
       </c>
-      <c r="K67" s="43"/>
+      <c r="K67" s="42"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
@@ -4885,7 +5990,7 @@
         <f t="shared" si="10"/>
         <v>111011</v>
       </c>
-      <c r="K68" s="43"/>
+      <c r="K68" s="42"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -4906,18 +6011,18 @@
       <c r="G69" s="8">
         <v>15</v>
       </c>
-      <c r="H69" s="30" t="str">
+      <c r="H69" s="29" t="str">
         <f t="shared" si="3"/>
         <v>3C</v>
       </c>
       <c r="I69" s="9">
         <v>60</v>
       </c>
-      <c r="J69" s="31" t="str">
+      <c r="J69" s="30" t="str">
         <f t="shared" si="10"/>
         <v>111100</v>
       </c>
-      <c r="K69" s="43"/>
+      <c r="K69" s="42"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
@@ -4946,7 +6051,7 @@
         <f t="shared" si="10"/>
         <v>111101</v>
       </c>
-      <c r="K70" s="43"/>
+      <c r="K70" s="42"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -4975,7 +6080,7 @@
         <f t="shared" si="10"/>
         <v>111110</v>
       </c>
-      <c r="K71" s="43"/>
+      <c r="K71" s="42"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
@@ -5004,7 +6109,7 @@
         <f t="shared" si="10"/>
         <v>111111</v>
       </c>
-      <c r="K72" s="43"/>
+      <c r="K72" s="42"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
@@ -5145,4 +6250,3633 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C04644-0D2B-4E3D-9796-4433B568380C}">
+  <dimension ref="A1:AC87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="29" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="F3" s="40">
+        <v>3</v>
+      </c>
+      <c r="G3" s="40">
+        <v>2</v>
+      </c>
+      <c r="H3" s="40">
+        <v>1</v>
+      </c>
+      <c r="I3" s="40">
+        <v>0</v>
+      </c>
+      <c r="J3" s="40">
+        <v>3</v>
+      </c>
+      <c r="K3" s="40">
+        <v>2</v>
+      </c>
+      <c r="L3" s="40">
+        <v>1</v>
+      </c>
+      <c r="M3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="62"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="62"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="74">
+        <v>7</v>
+      </c>
+      <c r="G5" s="69">
+        <v>6</v>
+      </c>
+      <c r="H5" s="69">
+        <v>5</v>
+      </c>
+      <c r="I5" s="69">
+        <v>4</v>
+      </c>
+      <c r="J5" s="69">
+        <v>3</v>
+      </c>
+      <c r="K5" s="69">
+        <v>2</v>
+      </c>
+      <c r="L5" s="69">
+        <v>1</v>
+      </c>
+      <c r="M5" s="69">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="62">
+        <v>1</v>
+      </c>
+      <c r="D6" s="70">
+        <v>0</v>
+      </c>
+      <c r="E6" s="76">
+        <v>0</v>
+      </c>
+      <c r="F6" s="67" t="str">
+        <f>TEXT(DEC2BIN($C6,7),"0000000;")&amp;"  "&amp;TEXT(DEC2BIN(2^F$3,4),"0000")</f>
+        <v>0000001  1000</v>
+      </c>
+      <c r="G6" s="68" t="str">
+        <f t="shared" ref="G6:I21" si="0">TEXT(DEC2BIN($C6,7),"0000000")&amp;"  "&amp;TEXT(DEC2BIN(2^G$3,4),"0000")</f>
+        <v>0000001  0100</v>
+      </c>
+      <c r="H6" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001  0010</v>
+      </c>
+      <c r="I6" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001  0001</v>
+      </c>
+      <c r="J6" s="68" t="str">
+        <f>TEXT(DEC2BIN($D6,7),"0000000")&amp;"  "&amp;TEXT(DEC2BIN(2^J$3,4),"0000")</f>
+        <v>0000000  1000</v>
+      </c>
+      <c r="K6" s="68" t="str">
+        <f t="shared" ref="K6:O21" si="1">TEXT(DEC2BIN($D6,7),"0000000")&amp;"  "&amp;TEXT(DEC2BIN(2^K$3,4),"0000")</f>
+        <v>0000000  0100</v>
+      </c>
+      <c r="L6" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000  0010</v>
+      </c>
+      <c r="M6" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000  0001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="62">
+        <v>3</v>
+      </c>
+      <c r="D7" s="70">
+        <v>2</v>
+      </c>
+      <c r="E7" s="76">
+        <v>1</v>
+      </c>
+      <c r="F7" s="55" t="str">
+        <f t="shared" ref="F7:I38" si="2">TEXT(DEC2BIN($C7,7),"0000000")&amp;"  "&amp;TEXT(DEC2BIN(2^F$3,4),"0000")</f>
+        <v>0000011  1000</v>
+      </c>
+      <c r="G7" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0000011  0100</v>
+      </c>
+      <c r="H7" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0000011  0010</v>
+      </c>
+      <c r="I7" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0000011  0001</v>
+      </c>
+      <c r="J7" s="48" t="str">
+        <f t="shared" ref="J7:O38" si="3">TEXT(DEC2BIN($D7,7),"0000000")&amp;"  "&amp;TEXT(DEC2BIN(2^J$3,4),"0000")</f>
+        <v>0000010  1000</v>
+      </c>
+      <c r="K7" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010  0100</v>
+      </c>
+      <c r="L7" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010  0010</v>
+      </c>
+      <c r="M7" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010  0001</v>
+      </c>
+      <c r="O7" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010  0001</v>
+      </c>
+      <c r="P7" s="54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="62">
+        <v>5</v>
+      </c>
+      <c r="D8" s="70">
+        <v>4</v>
+      </c>
+      <c r="E8" s="76">
+        <v>2</v>
+      </c>
+      <c r="F8" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0000101  1000</v>
+      </c>
+      <c r="G8" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0000101  0100</v>
+      </c>
+      <c r="H8" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0000101  0010</v>
+      </c>
+      <c r="I8" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0000101  0001</v>
+      </c>
+      <c r="J8" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0000100  1000</v>
+      </c>
+      <c r="K8" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0000100  0100</v>
+      </c>
+      <c r="L8" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0000100  0010</v>
+      </c>
+      <c r="M8" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0000100  0001</v>
+      </c>
+      <c r="O8" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0000100  0001</v>
+      </c>
+      <c r="P8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="62">
+        <v>7</v>
+      </c>
+      <c r="D9" s="70">
+        <v>6</v>
+      </c>
+      <c r="E9" s="76">
+        <v>3</v>
+      </c>
+      <c r="F9" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0000111  1000</v>
+      </c>
+      <c r="G9" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0000111  0100</v>
+      </c>
+      <c r="H9" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0000111  0010</v>
+      </c>
+      <c r="I9" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0000111  0001</v>
+      </c>
+      <c r="J9" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0000110  1000</v>
+      </c>
+      <c r="K9" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0000110  0100</v>
+      </c>
+      <c r="L9" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0000110  0010</v>
+      </c>
+      <c r="M9" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0000110  0001</v>
+      </c>
+      <c r="O9" s="51" t="str">
+        <f t="shared" ref="O9:O10" si="4">TEXT(DEC2BIN($C9,7),"0000000")&amp;"  "&amp;TEXT(DEC2BIN(2^O$3,4),"0000")</f>
+        <v>0000111  0001</v>
+      </c>
+      <c r="P9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="62">
+        <v>9</v>
+      </c>
+      <c r="D10" s="70">
+        <v>8</v>
+      </c>
+      <c r="E10" s="76">
+        <v>4</v>
+      </c>
+      <c r="F10" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0001001  1000</v>
+      </c>
+      <c r="G10" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0001001  0100</v>
+      </c>
+      <c r="H10" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0001001  0010</v>
+      </c>
+      <c r="I10" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0001001  0001</v>
+      </c>
+      <c r="J10" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0001000  1000</v>
+      </c>
+      <c r="K10" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0001000  0100</v>
+      </c>
+      <c r="L10" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0001000  0010</v>
+      </c>
+      <c r="M10" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0001000  0001</v>
+      </c>
+      <c r="O10" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v>0001001  0001</v>
+      </c>
+      <c r="P10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="62">
+        <v>11</v>
+      </c>
+      <c r="D11" s="70">
+        <v>10</v>
+      </c>
+      <c r="E11" s="76">
+        <v>5</v>
+      </c>
+      <c r="F11" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0001011  1000</v>
+      </c>
+      <c r="G11" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0001011  0100</v>
+      </c>
+      <c r="H11" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0001011  0010</v>
+      </c>
+      <c r="I11" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0001011  0001</v>
+      </c>
+      <c r="J11" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0001010  1000</v>
+      </c>
+      <c r="K11" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0001010  0100</v>
+      </c>
+      <c r="L11" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0001010  0010</v>
+      </c>
+      <c r="M11" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0001010  0001</v>
+      </c>
+      <c r="O11" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="62">
+        <v>13</v>
+      </c>
+      <c r="D12" s="70">
+        <v>12</v>
+      </c>
+      <c r="E12" s="76">
+        <v>6</v>
+      </c>
+      <c r="F12" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0001101  1000</v>
+      </c>
+      <c r="G12" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0001101  0100</v>
+      </c>
+      <c r="H12" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0001101  0010</v>
+      </c>
+      <c r="I12" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0001101  0001</v>
+      </c>
+      <c r="J12" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0001100  1000</v>
+      </c>
+      <c r="K12" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0001100  0100</v>
+      </c>
+      <c r="L12" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0001100  0010</v>
+      </c>
+      <c r="M12" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0001100  0001</v>
+      </c>
+      <c r="O12" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="62">
+        <v>15</v>
+      </c>
+      <c r="D13" s="70">
+        <v>14</v>
+      </c>
+      <c r="E13" s="76">
+        <v>7</v>
+      </c>
+      <c r="F13" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0001111  1000</v>
+      </c>
+      <c r="G13" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0001111  0100</v>
+      </c>
+      <c r="H13" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0001111  0010</v>
+      </c>
+      <c r="I13" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0001111  0001</v>
+      </c>
+      <c r="J13" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0001110  1000</v>
+      </c>
+      <c r="K13" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0001110  0100</v>
+      </c>
+      <c r="L13" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0001110  0010</v>
+      </c>
+      <c r="M13" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0001110  0001</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="62">
+        <v>17</v>
+      </c>
+      <c r="D14" s="70">
+        <v>16</v>
+      </c>
+      <c r="E14" s="76">
+        <v>8</v>
+      </c>
+      <c r="F14" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0010001  1000</v>
+      </c>
+      <c r="G14" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0010001  0100</v>
+      </c>
+      <c r="H14" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0010001  0010</v>
+      </c>
+      <c r="I14" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0010001  0001</v>
+      </c>
+      <c r="J14" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0010000  1000</v>
+      </c>
+      <c r="K14" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0010000  0100</v>
+      </c>
+      <c r="L14" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0010000  0010</v>
+      </c>
+      <c r="M14" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0010000  0001</v>
+      </c>
+      <c r="O14" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="P14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="62">
+        <v>19</v>
+      </c>
+      <c r="D15" s="70">
+        <v>18</v>
+      </c>
+      <c r="E15" s="76">
+        <v>9</v>
+      </c>
+      <c r="F15" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0010011  1000</v>
+      </c>
+      <c r="G15" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0010011  0100</v>
+      </c>
+      <c r="H15" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0010011  0010</v>
+      </c>
+      <c r="I15" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0010011  0001</v>
+      </c>
+      <c r="J15" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0010010  1000</v>
+      </c>
+      <c r="K15" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0010010  0100</v>
+      </c>
+      <c r="L15" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0010010  0010</v>
+      </c>
+      <c r="M15" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0010010  0001</v>
+      </c>
+      <c r="O15" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="P15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="62">
+        <v>21</v>
+      </c>
+      <c r="D16" s="70">
+        <v>20</v>
+      </c>
+      <c r="E16" s="76">
+        <v>10</v>
+      </c>
+      <c r="F16" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0010101  1000</v>
+      </c>
+      <c r="G16" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0010101  0100</v>
+      </c>
+      <c r="H16" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0010101  0010</v>
+      </c>
+      <c r="I16" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0010101  0001</v>
+      </c>
+      <c r="J16" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0010100  1000</v>
+      </c>
+      <c r="K16" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0010100  0100</v>
+      </c>
+      <c r="L16" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0010100  0010</v>
+      </c>
+      <c r="M16" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0010100  0001</v>
+      </c>
+      <c r="O16" s="63" t="str">
+        <f t="shared" ref="O16" si="5">TEXT(DEC2BIN($C16,7),"0000000")&amp;"  "&amp;TEXT(DEC2BIN(2^O$3,4),"0000")</f>
+        <v>0010101  0001</v>
+      </c>
+      <c r="P16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C17" s="62">
+        <v>23</v>
+      </c>
+      <c r="D17" s="70">
+        <v>22</v>
+      </c>
+      <c r="E17" s="76">
+        <v>11</v>
+      </c>
+      <c r="F17" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0010111  1000</v>
+      </c>
+      <c r="G17" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0010111  0100</v>
+      </c>
+      <c r="H17" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0010111  0010</v>
+      </c>
+      <c r="I17" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0010111  0001</v>
+      </c>
+      <c r="J17" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0010110  1000</v>
+      </c>
+      <c r="K17" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0010110  0100</v>
+      </c>
+      <c r="L17" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0010110  0010</v>
+      </c>
+      <c r="M17" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0010110  0001</v>
+      </c>
+      <c r="O17" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="62">
+        <v>25</v>
+      </c>
+      <c r="D18" s="70">
+        <v>24</v>
+      </c>
+      <c r="E18" s="76">
+        <v>12</v>
+      </c>
+      <c r="F18" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0011001  1000</v>
+      </c>
+      <c r="G18" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001  0100</v>
+      </c>
+      <c r="H18" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001  0010</v>
+      </c>
+      <c r="I18" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001  0001</v>
+      </c>
+      <c r="J18" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0011000  1000</v>
+      </c>
+      <c r="K18" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0011000  0100</v>
+      </c>
+      <c r="L18" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0011000  0010</v>
+      </c>
+      <c r="M18" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0011000  0001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="62">
+        <v>27</v>
+      </c>
+      <c r="D19" s="70">
+        <v>26</v>
+      </c>
+      <c r="E19" s="76">
+        <v>13</v>
+      </c>
+      <c r="F19" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0011011  1000</v>
+      </c>
+      <c r="G19" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0011011  0100</v>
+      </c>
+      <c r="H19" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0011011  0010</v>
+      </c>
+      <c r="I19" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0011011  0001</v>
+      </c>
+      <c r="J19" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0011010  1000</v>
+      </c>
+      <c r="K19" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0011010  0100</v>
+      </c>
+      <c r="L19" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0011010  0010</v>
+      </c>
+      <c r="M19" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0011010  0001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="62">
+        <v>29</v>
+      </c>
+      <c r="D20" s="70">
+        <v>28</v>
+      </c>
+      <c r="E20" s="76">
+        <v>14</v>
+      </c>
+      <c r="F20" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0011101  1000</v>
+      </c>
+      <c r="G20" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0011101  0100</v>
+      </c>
+      <c r="H20" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0011101  0010</v>
+      </c>
+      <c r="I20" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0011101  0001</v>
+      </c>
+      <c r="J20" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0011100  1000</v>
+      </c>
+      <c r="K20" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0011100  0100</v>
+      </c>
+      <c r="L20" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0011100  0010</v>
+      </c>
+      <c r="M20" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0011100  0001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="62">
+        <v>31</v>
+      </c>
+      <c r="D21" s="70">
+        <v>30</v>
+      </c>
+      <c r="E21" s="76">
+        <v>15</v>
+      </c>
+      <c r="F21" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0011111  1000</v>
+      </c>
+      <c r="G21" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0011111  0100</v>
+      </c>
+      <c r="H21" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0011111  0010</v>
+      </c>
+      <c r="I21" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>0011111  0001</v>
+      </c>
+      <c r="J21" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0011110  1000</v>
+      </c>
+      <c r="K21" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0011110  0100</v>
+      </c>
+      <c r="L21" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0011110  0010</v>
+      </c>
+      <c r="M21" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>0011110  0001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C22" s="62">
+        <v>33</v>
+      </c>
+      <c r="D22" s="70">
+        <v>32</v>
+      </c>
+      <c r="E22" s="76">
+        <v>16</v>
+      </c>
+      <c r="F22" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0100001  1000</v>
+      </c>
+      <c r="G22" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>0100001  0100</v>
+      </c>
+      <c r="H22" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>0100001  0010</v>
+      </c>
+      <c r="I22" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>0100001  0001</v>
+      </c>
+      <c r="J22" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0100000  1000</v>
+      </c>
+      <c r="K22" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0100000  0100</v>
+      </c>
+      <c r="L22" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0100000  0010</v>
+      </c>
+      <c r="M22" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0100000  0001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C23" s="62">
+        <v>35</v>
+      </c>
+      <c r="D23" s="70">
+        <v>34</v>
+      </c>
+      <c r="E23" s="76">
+        <v>17</v>
+      </c>
+      <c r="F23" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0100011  1000</v>
+      </c>
+      <c r="G23" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>0100011  0100</v>
+      </c>
+      <c r="H23" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>0100011  0010</v>
+      </c>
+      <c r="I23" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>0100011  0001</v>
+      </c>
+      <c r="J23" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0100010  1000</v>
+      </c>
+      <c r="K23" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0100010  0100</v>
+      </c>
+      <c r="L23" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0100010  0010</v>
+      </c>
+      <c r="M23" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0100010  0001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="56">
+        <v>37</v>
+      </c>
+      <c r="D24" s="71">
+        <v>36</v>
+      </c>
+      <c r="E24" s="49">
+        <v>18</v>
+      </c>
+      <c r="F24" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>0100101  1000</v>
+      </c>
+      <c r="G24" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>0100101  0100</v>
+      </c>
+      <c r="H24" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>0100101  0010</v>
+      </c>
+      <c r="I24" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>0100101  0001</v>
+      </c>
+      <c r="J24" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0100100  1000</v>
+      </c>
+      <c r="K24" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0100100  0100</v>
+      </c>
+      <c r="L24" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0100100  0010</v>
+      </c>
+      <c r="M24" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0100100  0001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="62">
+        <v>39</v>
+      </c>
+      <c r="D25" s="70">
+        <v>38</v>
+      </c>
+      <c r="E25" s="76">
+        <v>19</v>
+      </c>
+      <c r="F25" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0100111  1000</v>
+      </c>
+      <c r="G25" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>0100111  0100</v>
+      </c>
+      <c r="H25" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>0100111  0010</v>
+      </c>
+      <c r="I25" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>0100111  0001</v>
+      </c>
+      <c r="J25" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0100110  1000</v>
+      </c>
+      <c r="K25" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0100110  0100</v>
+      </c>
+      <c r="L25" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0100110  0010</v>
+      </c>
+      <c r="M25" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0100110  0001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="100">
+        <v>41</v>
+      </c>
+      <c r="D26" s="70">
+        <v>40</v>
+      </c>
+      <c r="E26" s="76">
+        <v>20</v>
+      </c>
+      <c r="F26" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v>0101001  1000</v>
+      </c>
+      <c r="G26" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>0101001  0100</v>
+      </c>
+      <c r="H26" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>0101001  0010</v>
+      </c>
+      <c r="I26" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>0101001  0001</v>
+      </c>
+      <c r="J26" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000  1000</v>
+      </c>
+      <c r="K26" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000  0100</v>
+      </c>
+      <c r="L26" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000  0010</v>
+      </c>
+      <c r="M26" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000  0001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="102" t="str">
+        <f>DEC2HEX(C27)</f>
+        <v>2B</v>
+      </c>
+      <c r="C27" s="103">
+        <v>43</v>
+      </c>
+      <c r="D27" s="99">
+        <v>42</v>
+      </c>
+      <c r="E27" s="76">
+        <v>21</v>
+      </c>
+      <c r="F27" s="57" t="str">
+        <f t="shared" si="2"/>
+        <v>0101011  1000</v>
+      </c>
+      <c r="G27" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>0101011  0100</v>
+      </c>
+      <c r="H27" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>0101011  0010</v>
+      </c>
+      <c r="I27" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>0101011  0001</v>
+      </c>
+      <c r="J27" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0101010  1000</v>
+      </c>
+      <c r="K27" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0101010  0100</v>
+      </c>
+      <c r="L27" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0101010  0010</v>
+      </c>
+      <c r="M27" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0101010  0001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="104" t="str">
+        <f t="shared" ref="B28:B46" si="6">DEC2HEX(C28)</f>
+        <v>2D</v>
+      </c>
+      <c r="C28" s="105">
+        <v>45</v>
+      </c>
+      <c r="D28" s="99">
+        <v>44</v>
+      </c>
+      <c r="E28" s="76">
+        <v>22</v>
+      </c>
+      <c r="F28" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>0101101  1000</v>
+      </c>
+      <c r="G28" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>0101101  0100</v>
+      </c>
+      <c r="H28" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>0101101  0010</v>
+      </c>
+      <c r="I28" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>0101101  0001</v>
+      </c>
+      <c r="J28" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0101100  1000</v>
+      </c>
+      <c r="K28" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0101100  0100</v>
+      </c>
+      <c r="L28" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0101100  0010</v>
+      </c>
+      <c r="M28" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0101100  0001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v>2F</v>
+      </c>
+      <c r="C29" s="105">
+        <v>47</v>
+      </c>
+      <c r="D29" s="99">
+        <v>46</v>
+      </c>
+      <c r="E29" s="76">
+        <v>23</v>
+      </c>
+      <c r="F29" s="57" t="str">
+        <f t="shared" si="2"/>
+        <v>0101111  1000</v>
+      </c>
+      <c r="G29" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>0101111  0100</v>
+      </c>
+      <c r="H29" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>0101111  0010</v>
+      </c>
+      <c r="I29" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>0101111  0001</v>
+      </c>
+      <c r="J29" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0101110  1000</v>
+      </c>
+      <c r="K29" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0101110  0100</v>
+      </c>
+      <c r="L29" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0101110  0010</v>
+      </c>
+      <c r="M29" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0101110  0001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="C30" s="105">
+        <v>49</v>
+      </c>
+      <c r="D30" s="99">
+        <v>48</v>
+      </c>
+      <c r="E30" s="76">
+        <v>24</v>
+      </c>
+      <c r="F30" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v>0110001  1000</v>
+      </c>
+      <c r="G30" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>0110001  0100</v>
+      </c>
+      <c r="H30" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>0110001  0010</v>
+      </c>
+      <c r="I30" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>0110001  0001</v>
+      </c>
+      <c r="J30" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0110000  1000</v>
+      </c>
+      <c r="K30" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0110000  0100</v>
+      </c>
+      <c r="L30" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0110000  0010</v>
+      </c>
+      <c r="M30" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0110000  0001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="C31" s="105">
+        <v>51</v>
+      </c>
+      <c r="D31" s="99">
+        <v>50</v>
+      </c>
+      <c r="E31" s="76">
+        <v>25</v>
+      </c>
+      <c r="F31" s="57" t="str">
+        <f t="shared" si="2"/>
+        <v>0110011  1000</v>
+      </c>
+      <c r="G31" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0110011  0100</v>
+      </c>
+      <c r="H31" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0110011  0010</v>
+      </c>
+      <c r="I31" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0110011  0001</v>
+      </c>
+      <c r="J31" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0110010  1000</v>
+      </c>
+      <c r="K31" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0110010  0100</v>
+      </c>
+      <c r="L31" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0110010  0010</v>
+      </c>
+      <c r="M31" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0110010  0001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="C32" s="105">
+        <v>53</v>
+      </c>
+      <c r="D32" s="99">
+        <v>52</v>
+      </c>
+      <c r="E32" s="76">
+        <v>26</v>
+      </c>
+      <c r="F32" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>0110101  1000</v>
+      </c>
+      <c r="G32" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0110101  0100</v>
+      </c>
+      <c r="H32" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0110101  0010</v>
+      </c>
+      <c r="I32" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0110101  0001</v>
+      </c>
+      <c r="J32" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0110100  1000</v>
+      </c>
+      <c r="K32" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0110100  0100</v>
+      </c>
+      <c r="L32" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0110100  0010</v>
+      </c>
+      <c r="M32" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0110100  0001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="C33" s="105">
+        <v>55</v>
+      </c>
+      <c r="D33" s="99">
+        <v>54</v>
+      </c>
+      <c r="E33" s="76">
+        <v>27</v>
+      </c>
+      <c r="F33" s="57" t="str">
+        <f t="shared" si="2"/>
+        <v>0110111  1000</v>
+      </c>
+      <c r="G33" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0110111  0100</v>
+      </c>
+      <c r="H33" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0110111  0010</v>
+      </c>
+      <c r="I33" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0110111  0001</v>
+      </c>
+      <c r="J33" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0110110  1000</v>
+      </c>
+      <c r="K33" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0110110  0100</v>
+      </c>
+      <c r="L33" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0110110  0010</v>
+      </c>
+      <c r="M33" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0110110  0001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="C34" s="105">
+        <v>57</v>
+      </c>
+      <c r="D34" s="99">
+        <v>56</v>
+      </c>
+      <c r="E34" s="76">
+        <v>28</v>
+      </c>
+      <c r="F34" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>0111001  1000</v>
+      </c>
+      <c r="G34" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0111001  0100</v>
+      </c>
+      <c r="H34" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0111001  0010</v>
+      </c>
+      <c r="I34" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0111001  0001</v>
+      </c>
+      <c r="J34" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0111000  1000</v>
+      </c>
+      <c r="K34" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v>0111000  0100</v>
+      </c>
+      <c r="L34" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0111000  0010</v>
+      </c>
+      <c r="M34" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0111000  0001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v>3B</v>
+      </c>
+      <c r="C35" s="105">
+        <v>59</v>
+      </c>
+      <c r="D35" s="99">
+        <v>58</v>
+      </c>
+      <c r="E35" s="76">
+        <v>29</v>
+      </c>
+      <c r="F35" s="57" t="str">
+        <f t="shared" si="2"/>
+        <v>0111011  1000</v>
+      </c>
+      <c r="G35" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0111011  0100</v>
+      </c>
+      <c r="H35" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0111011  0010</v>
+      </c>
+      <c r="I35" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0111011  0001</v>
+      </c>
+      <c r="J35" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0111010  1000</v>
+      </c>
+      <c r="K35" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v>0111010  0100</v>
+      </c>
+      <c r="L35" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0111010  0010</v>
+      </c>
+      <c r="M35" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0111010  0001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v>3D</v>
+      </c>
+      <c r="C36" s="105">
+        <v>61</v>
+      </c>
+      <c r="D36" s="99">
+        <v>60</v>
+      </c>
+      <c r="E36" s="76">
+        <v>30</v>
+      </c>
+      <c r="F36" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>0111101  1000</v>
+      </c>
+      <c r="G36" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0111101  0100</v>
+      </c>
+      <c r="H36" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0111101  0010</v>
+      </c>
+      <c r="I36" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0111101  0001</v>
+      </c>
+      <c r="J36" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0111100  1000</v>
+      </c>
+      <c r="K36" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0111100  0100</v>
+      </c>
+      <c r="L36" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0111100  0010</v>
+      </c>
+      <c r="M36" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0111100  0001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v>3F</v>
+      </c>
+      <c r="C37" s="105">
+        <v>63</v>
+      </c>
+      <c r="D37" s="99">
+        <v>62</v>
+      </c>
+      <c r="E37" s="76">
+        <v>31</v>
+      </c>
+      <c r="F37" s="57" t="str">
+        <f t="shared" si="2"/>
+        <v>0111111  1000</v>
+      </c>
+      <c r="G37" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0111111  0100</v>
+      </c>
+      <c r="H37" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0111111  0010</v>
+      </c>
+      <c r="I37" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>0111111  0001</v>
+      </c>
+      <c r="J37" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0111110  1000</v>
+      </c>
+      <c r="K37" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>0111110  0100</v>
+      </c>
+      <c r="L37" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0111110  0010</v>
+      </c>
+      <c r="M37" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>0111110  0001</v>
+      </c>
+      <c r="O37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="C38" s="105">
+        <v>65</v>
+      </c>
+      <c r="D38" s="99">
+        <v>64</v>
+      </c>
+      <c r="E38" s="76">
+        <v>32</v>
+      </c>
+      <c r="F38" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>1000001  1000</v>
+      </c>
+      <c r="G38" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>1000001  0100</v>
+      </c>
+      <c r="H38" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>1000001  0010</v>
+      </c>
+      <c r="I38" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>1000001  0001</v>
+      </c>
+      <c r="J38" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000  1000</v>
+      </c>
+      <c r="K38" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000  0100</v>
+      </c>
+      <c r="L38" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000  0010</v>
+      </c>
+      <c r="M38" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000  0001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="C39" s="105">
+        <v>67</v>
+      </c>
+      <c r="D39" s="99">
+        <v>66</v>
+      </c>
+      <c r="E39" s="76">
+        <v>33</v>
+      </c>
+      <c r="F39" s="60" t="str">
+        <f t="shared" ref="F39:I69" si="7">TEXT(DEC2BIN($C39,7),"0000000")&amp;"  "&amp;TEXT(DEC2BIN(2^F$3,4),"0000")</f>
+        <v>1000011  1000</v>
+      </c>
+      <c r="G39" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1000011  0100</v>
+      </c>
+      <c r="H39" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1000011  0010</v>
+      </c>
+      <c r="I39" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1000011  0001</v>
+      </c>
+      <c r="J39" s="49" t="str">
+        <f t="shared" ref="J39:M69" si="8">TEXT(DEC2BIN($D39,7),"0000000")&amp;"  "&amp;TEXT(DEC2BIN(2^J$3,4),"0000")</f>
+        <v>1000010  1000</v>
+      </c>
+      <c r="K39" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1000010  0100</v>
+      </c>
+      <c r="L39" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>1000010  0010</v>
+      </c>
+      <c r="M39" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>1000010  0001</v>
+      </c>
+      <c r="O39" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="P39" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q39" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="R39" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="S39" s="82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="108" t="str">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="C40" s="105">
+        <v>69</v>
+      </c>
+      <c r="D40" s="99">
+        <v>68</v>
+      </c>
+      <c r="E40" s="76">
+        <v>34</v>
+      </c>
+      <c r="F40" s="61" t="str">
+        <f t="shared" si="7"/>
+        <v>1000101  1000</v>
+      </c>
+      <c r="G40" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1000101  0100</v>
+      </c>
+      <c r="H40" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1000101  0010</v>
+      </c>
+      <c r="I40" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1000101  0001</v>
+      </c>
+      <c r="J40" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1000100  1000</v>
+      </c>
+      <c r="K40" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1000100  0100</v>
+      </c>
+      <c r="L40" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>1000100  0010</v>
+      </c>
+      <c r="M40" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>1000100  0001</v>
+      </c>
+      <c r="O40" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="P40" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q40" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="R40" s="81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="C41" s="105">
+        <v>71</v>
+      </c>
+      <c r="D41" s="99">
+        <v>70</v>
+      </c>
+      <c r="E41" s="76">
+        <v>35</v>
+      </c>
+      <c r="F41" s="60" t="str">
+        <f t="shared" si="7"/>
+        <v>1000111  1000</v>
+      </c>
+      <c r="G41" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1000111  0100</v>
+      </c>
+      <c r="H41" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1000111  0010</v>
+      </c>
+      <c r="I41" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1000111  0001</v>
+      </c>
+      <c r="J41" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1000110  1000</v>
+      </c>
+      <c r="K41" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1000110  0100</v>
+      </c>
+      <c r="L41" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>1000110  0010</v>
+      </c>
+      <c r="M41" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>1000110  0001</v>
+      </c>
+      <c r="O41" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="P41" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q41" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="R41" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="S41" s="82" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="C42" s="105">
+        <v>73</v>
+      </c>
+      <c r="D42" s="99">
+        <v>72</v>
+      </c>
+      <c r="E42" s="76">
+        <v>36</v>
+      </c>
+      <c r="F42" s="61" t="str">
+        <f t="shared" si="7"/>
+        <v>1001001  1000</v>
+      </c>
+      <c r="G42" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1001001  0100</v>
+      </c>
+      <c r="H42" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1001001  0010</v>
+      </c>
+      <c r="I42" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1001001  0001</v>
+      </c>
+      <c r="J42" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1001000  1000</v>
+      </c>
+      <c r="K42" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1001000  0100</v>
+      </c>
+      <c r="L42" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>1001000  0010</v>
+      </c>
+      <c r="M42" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>1001000  0001</v>
+      </c>
+      <c r="O42" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="P42" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q42" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="R42" s="81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v>4B</v>
+      </c>
+      <c r="C43" s="105">
+        <v>75</v>
+      </c>
+      <c r="D43" s="99">
+        <v>74</v>
+      </c>
+      <c r="E43" s="76">
+        <v>37</v>
+      </c>
+      <c r="F43" s="60" t="str">
+        <f t="shared" si="7"/>
+        <v>1001011  1000</v>
+      </c>
+      <c r="G43" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1001011  0100</v>
+      </c>
+      <c r="H43" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1001011  0010</v>
+      </c>
+      <c r="I43" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1001011  0001</v>
+      </c>
+      <c r="J43" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1001010  1000</v>
+      </c>
+      <c r="K43" s="46" t="str">
+        <f t="shared" si="8"/>
+        <v>1001010  0100</v>
+      </c>
+      <c r="L43" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>1001010  0010</v>
+      </c>
+      <c r="M43" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>1001010  0001</v>
+      </c>
+      <c r="O43" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="P43" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q43" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="R43" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="S43" s="82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v>4D</v>
+      </c>
+      <c r="C44" s="105">
+        <v>77</v>
+      </c>
+      <c r="D44" s="99">
+        <v>76</v>
+      </c>
+      <c r="E44" s="76">
+        <v>38</v>
+      </c>
+      <c r="F44" s="61" t="str">
+        <f t="shared" si="7"/>
+        <v>1001101  1000</v>
+      </c>
+      <c r="G44" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1001101  0100</v>
+      </c>
+      <c r="H44" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1001101  0010</v>
+      </c>
+      <c r="I44" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>1001101  0001</v>
+      </c>
+      <c r="J44" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1001100  1000</v>
+      </c>
+      <c r="K44" s="46" t="str">
+        <f t="shared" si="8"/>
+        <v>1001100  0100</v>
+      </c>
+      <c r="L44" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>1001100  0010</v>
+      </c>
+      <c r="M44" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>1001100  0001</v>
+      </c>
+      <c r="O44" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="P44" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q44" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="R44" s="81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v>4F</v>
+      </c>
+      <c r="C45" s="105">
+        <v>79</v>
+      </c>
+      <c r="D45" s="99">
+        <v>78</v>
+      </c>
+      <c r="E45" s="76">
+        <v>39</v>
+      </c>
+      <c r="F45" s="57" t="str">
+        <f t="shared" si="7"/>
+        <v>1001111  1000</v>
+      </c>
+      <c r="G45" s="51" t="str">
+        <f t="shared" si="7"/>
+        <v>1001111  0100</v>
+      </c>
+      <c r="H45" s="51" t="str">
+        <f t="shared" si="7"/>
+        <v>1001111  0010</v>
+      </c>
+      <c r="I45" s="51" t="str">
+        <f t="shared" si="7"/>
+        <v>1001111  0001</v>
+      </c>
+      <c r="J45" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1001110  1000</v>
+      </c>
+      <c r="K45" s="50" t="str">
+        <f t="shared" si="8"/>
+        <v>1001110  0100</v>
+      </c>
+      <c r="L45" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>1001110  0010</v>
+      </c>
+      <c r="M45" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>1001110  0001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="C46" s="107">
+        <v>81</v>
+      </c>
+      <c r="D46" s="99">
+        <v>80</v>
+      </c>
+      <c r="E46" s="76">
+        <v>40</v>
+      </c>
+      <c r="F46" s="58" t="str">
+        <f t="shared" si="7"/>
+        <v>1010001  1000</v>
+      </c>
+      <c r="G46" s="51" t="str">
+        <f t="shared" si="7"/>
+        <v>1010001  0100</v>
+      </c>
+      <c r="H46" s="51" t="str">
+        <f t="shared" si="7"/>
+        <v>1010001  0010</v>
+      </c>
+      <c r="I46" s="51" t="str">
+        <f t="shared" si="7"/>
+        <v>1010001  0001</v>
+      </c>
+      <c r="J46" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1010000  1000</v>
+      </c>
+      <c r="K46" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1010000  0100</v>
+      </c>
+      <c r="L46" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>1010000  0010</v>
+      </c>
+      <c r="M46" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>1010000  0001</v>
+      </c>
+      <c r="O46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="101">
+        <v>83</v>
+      </c>
+      <c r="D47" s="72">
+        <v>82</v>
+      </c>
+      <c r="E47" s="49">
+        <v>41</v>
+      </c>
+      <c r="F47" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1010011  1000</v>
+      </c>
+      <c r="G47" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1010011  0100</v>
+      </c>
+      <c r="H47" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1010011  0010</v>
+      </c>
+      <c r="I47" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1010011  0001</v>
+      </c>
+      <c r="J47" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1010010  1000</v>
+      </c>
+      <c r="K47" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1010010  0100</v>
+      </c>
+      <c r="L47" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1010010  0010</v>
+      </c>
+      <c r="M47" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1010010  0001</v>
+      </c>
+      <c r="O47" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="P47" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="87"/>
+      <c r="S47" s="88"/>
+    </row>
+    <row r="48" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="49">
+        <v>85</v>
+      </c>
+      <c r="D48" s="72">
+        <v>84</v>
+      </c>
+      <c r="E48" s="49">
+        <v>42</v>
+      </c>
+      <c r="F48" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1010101  1000</v>
+      </c>
+      <c r="G48" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1010101  0100</v>
+      </c>
+      <c r="H48" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1010101  0010</v>
+      </c>
+      <c r="I48" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1010101  0001</v>
+      </c>
+      <c r="J48" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1010100  1000</v>
+      </c>
+      <c r="K48" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1010100  0100</v>
+      </c>
+      <c r="L48" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1010100  0010</v>
+      </c>
+      <c r="M48" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1010100  0001</v>
+      </c>
+      <c r="O48" s="109" t="str">
+        <f t="shared" ref="O48:O53" si="9">BIN2HEX(LEFT(O39,7))</f>
+        <v>43</v>
+      </c>
+      <c r="P48" s="97" t="str">
+        <f t="shared" ref="P48:P53" si="10">BIN2HEX(RIGHT(O39,4))</f>
+        <v>8</v>
+      </c>
+      <c r="Q48" s="91" t="str">
+        <f t="shared" ref="Q48:S49" si="11">BIN2HEX(RIGHT(P39,4))</f>
+        <v>4</v>
+      </c>
+      <c r="R48" s="91" t="str">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="S48" s="92" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="T48" s="83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="49">
+        <v>87</v>
+      </c>
+      <c r="D49" s="72">
+        <v>86</v>
+      </c>
+      <c r="E49" s="49">
+        <v>43</v>
+      </c>
+      <c r="F49" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1010111  1000</v>
+      </c>
+      <c r="G49" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1010111  0100</v>
+      </c>
+      <c r="H49" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1010111  0010</v>
+      </c>
+      <c r="I49" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1010111  0001</v>
+      </c>
+      <c r="J49" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1010110  1000</v>
+      </c>
+      <c r="K49" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1010110  0100</v>
+      </c>
+      <c r="L49" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1010110  0010</v>
+      </c>
+      <c r="M49" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1010110  0001</v>
+      </c>
+      <c r="O49" s="109" t="str">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="P49" s="90" t="str">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Q49" s="91" t="str">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="R49" s="91" t="str">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="S49" s="92" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="T49" s="83"/>
+    </row>
+    <row r="50" spans="3:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="49">
+        <v>89</v>
+      </c>
+      <c r="D50" s="72">
+        <v>88</v>
+      </c>
+      <c r="E50" s="49">
+        <v>44</v>
+      </c>
+      <c r="F50" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1011001  1000</v>
+      </c>
+      <c r="G50" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1011001  0100</v>
+      </c>
+      <c r="H50" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1011001  0010</v>
+      </c>
+      <c r="I50" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1011001  0001</v>
+      </c>
+      <c r="J50" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1011000  1000</v>
+      </c>
+      <c r="K50" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1011000  0100</v>
+      </c>
+      <c r="L50" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1011000  0010</v>
+      </c>
+      <c r="M50" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1011000  0001</v>
+      </c>
+      <c r="O50" s="89" t="str">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="P50" s="97" t="str">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Q50" s="91" t="str">
+        <f t="shared" ref="Q50:S53" si="12">BIN2HEX(RIGHT(P41,4))</f>
+        <v>4</v>
+      </c>
+      <c r="R50" s="91" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="S50" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T50" s="83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="49">
+        <v>91</v>
+      </c>
+      <c r="D51" s="72">
+        <v>90</v>
+      </c>
+      <c r="E51" s="49">
+        <v>45</v>
+      </c>
+      <c r="F51" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1011011  1000</v>
+      </c>
+      <c r="G51" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1011011  0100</v>
+      </c>
+      <c r="H51" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1011011  0010</v>
+      </c>
+      <c r="I51" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1011011  0001</v>
+      </c>
+      <c r="J51" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1011010  1000</v>
+      </c>
+      <c r="K51" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1011010  0100</v>
+      </c>
+      <c r="L51" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1011010  0010</v>
+      </c>
+      <c r="M51" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1011010  0001</v>
+      </c>
+      <c r="O51" s="89" t="str">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="P51" s="90" t="str">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Q51" s="91" t="str">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="R51" s="91" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="S51" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T51" s="83"/>
+    </row>
+    <row r="52" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="49">
+        <v>93</v>
+      </c>
+      <c r="D52" s="72">
+        <v>92</v>
+      </c>
+      <c r="E52" s="49">
+        <v>46</v>
+      </c>
+      <c r="F52" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1011101  1000</v>
+      </c>
+      <c r="G52" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1011101  0100</v>
+      </c>
+      <c r="H52" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1011101  0010</v>
+      </c>
+      <c r="I52" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1011101  0001</v>
+      </c>
+      <c r="J52" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1011100  1000</v>
+      </c>
+      <c r="K52" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1011100  0100</v>
+      </c>
+      <c r="L52" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1011100  0010</v>
+      </c>
+      <c r="M52" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1011100  0001</v>
+      </c>
+      <c r="O52" s="89" t="str">
+        <f t="shared" si="9"/>
+        <v>4B</v>
+      </c>
+      <c r="P52" s="97" t="str">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Q52" s="91" t="str">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="R52" s="91" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="S52" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T52" s="83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="49">
+        <v>95</v>
+      </c>
+      <c r="D53" s="72">
+        <v>94</v>
+      </c>
+      <c r="E53" s="49">
+        <v>47</v>
+      </c>
+      <c r="F53" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1011111  1000</v>
+      </c>
+      <c r="G53" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1011111  0100</v>
+      </c>
+      <c r="H53" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1011111  0010</v>
+      </c>
+      <c r="I53" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1011111  0001</v>
+      </c>
+      <c r="J53" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1011110  1000</v>
+      </c>
+      <c r="K53" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1011110  0100</v>
+      </c>
+      <c r="L53" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1011110  0010</v>
+      </c>
+      <c r="M53" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1011110  0001</v>
+      </c>
+      <c r="O53" s="93" t="str">
+        <f t="shared" si="9"/>
+        <v>4D</v>
+      </c>
+      <c r="P53" s="94" t="str">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Q53" s="95" t="str">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="R53" s="95" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="S53" s="96" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T53" s="83"/>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C54" s="49">
+        <v>97</v>
+      </c>
+      <c r="D54" s="72">
+        <v>96</v>
+      </c>
+      <c r="E54" s="49">
+        <v>48</v>
+      </c>
+      <c r="F54" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1100001  1000</v>
+      </c>
+      <c r="G54" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1100001  0100</v>
+      </c>
+      <c r="H54" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1100001  0010</v>
+      </c>
+      <c r="I54" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1100001  0001</v>
+      </c>
+      <c r="J54" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1100000  1000</v>
+      </c>
+      <c r="K54" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1100000  0100</v>
+      </c>
+      <c r="L54" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1100000  0010</v>
+      </c>
+      <c r="M54" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1100000  0001</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C55" s="49">
+        <v>99</v>
+      </c>
+      <c r="D55" s="72">
+        <v>98</v>
+      </c>
+      <c r="E55" s="49">
+        <v>49</v>
+      </c>
+      <c r="F55" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011  1000</v>
+      </c>
+      <c r="G55" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011  0100</v>
+      </c>
+      <c r="H55" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011  0010</v>
+      </c>
+      <c r="I55" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011  0001</v>
+      </c>
+      <c r="J55" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1100010  1000</v>
+      </c>
+      <c r="K55" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1100010  0100</v>
+      </c>
+      <c r="L55" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1100010  0010</v>
+      </c>
+      <c r="M55" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1100010  0001</v>
+      </c>
+      <c r="O55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C56" s="49">
+        <v>101</v>
+      </c>
+      <c r="D56" s="72">
+        <v>100</v>
+      </c>
+      <c r="E56" s="49">
+        <v>50</v>
+      </c>
+      <c r="F56" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1100101  1000</v>
+      </c>
+      <c r="G56" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1100101  0100</v>
+      </c>
+      <c r="H56" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1100101  0010</v>
+      </c>
+      <c r="I56" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1100101  0001</v>
+      </c>
+      <c r="J56" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1100100  1000</v>
+      </c>
+      <c r="K56" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1100100  0100</v>
+      </c>
+      <c r="L56" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1100100  0010</v>
+      </c>
+      <c r="M56" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1100100  0001</v>
+      </c>
+      <c r="O56" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="P56" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="R56" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="S56" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T56" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="U56" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="V56" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="W56" s="40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C57" s="49">
+        <v>103</v>
+      </c>
+      <c r="D57" s="72">
+        <v>102</v>
+      </c>
+      <c r="E57" s="49">
+        <v>51</v>
+      </c>
+      <c r="F57" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1100111  1000</v>
+      </c>
+      <c r="G57" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1100111  0100</v>
+      </c>
+      <c r="H57" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1100111  0010</v>
+      </c>
+      <c r="I57" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1100111  0001</v>
+      </c>
+      <c r="J57" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1100110  1000</v>
+      </c>
+      <c r="K57" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1100110  0100</v>
+      </c>
+      <c r="L57" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1100110  0010</v>
+      </c>
+      <c r="M57" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1100110  0001</v>
+      </c>
+      <c r="O57" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="P57" s="112" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q57" s="112" t="s">
+        <v>168</v>
+      </c>
+      <c r="R57" s="112" t="s">
+        <v>169</v>
+      </c>
+      <c r="S57" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="T57" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="U57" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="V57" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="W57" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C58" s="49">
+        <v>105</v>
+      </c>
+      <c r="D58" s="72">
+        <v>104</v>
+      </c>
+      <c r="E58" s="49">
+        <v>52</v>
+      </c>
+      <c r="F58" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1101001  1000</v>
+      </c>
+      <c r="G58" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1101001  0100</v>
+      </c>
+      <c r="H58" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1101001  0010</v>
+      </c>
+      <c r="I58" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1101001  0001</v>
+      </c>
+      <c r="J58" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1101000  1000</v>
+      </c>
+      <c r="K58" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1101000  0100</v>
+      </c>
+      <c r="L58" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1101000  0010</v>
+      </c>
+      <c r="M58" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1101000  0001</v>
+      </c>
+      <c r="O58" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C59" s="49">
+        <v>107</v>
+      </c>
+      <c r="D59" s="72">
+        <v>106</v>
+      </c>
+      <c r="E59" s="49">
+        <v>53</v>
+      </c>
+      <c r="F59" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1101011  1000</v>
+      </c>
+      <c r="G59" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1101011  0100</v>
+      </c>
+      <c r="H59" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1101011  0010</v>
+      </c>
+      <c r="I59" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1101011  0001</v>
+      </c>
+      <c r="J59" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1101010  1000</v>
+      </c>
+      <c r="K59" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1101010  0100</v>
+      </c>
+      <c r="L59" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1101010  0010</v>
+      </c>
+      <c r="M59" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1101010  0001</v>
+      </c>
+      <c r="O59" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="P59" s="85"/>
+      <c r="Q59" s="85"/>
+      <c r="R59" s="85"/>
+      <c r="S59" s="85"/>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C60" s="49">
+        <v>109</v>
+      </c>
+      <c r="D60" s="72">
+        <v>108</v>
+      </c>
+      <c r="E60" s="49">
+        <v>54</v>
+      </c>
+      <c r="F60" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1101101  1000</v>
+      </c>
+      <c r="G60" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1101101  0100</v>
+      </c>
+      <c r="H60" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1101101  0010</v>
+      </c>
+      <c r="I60" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1101101  0001</v>
+      </c>
+      <c r="J60" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1101100  1000</v>
+      </c>
+      <c r="K60" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1101100  0100</v>
+      </c>
+      <c r="L60" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1101100  0010</v>
+      </c>
+      <c r="M60" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1101100  0001</v>
+      </c>
+      <c r="O60" t="s">
+        <v>190</v>
+      </c>
+      <c r="P60" s="85"/>
+      <c r="Q60" s="85"/>
+      <c r="R60" s="85"/>
+      <c r="S60" s="85"/>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C61" s="49">
+        <v>111</v>
+      </c>
+      <c r="D61" s="72">
+        <v>110</v>
+      </c>
+      <c r="E61" s="49">
+        <v>55</v>
+      </c>
+      <c r="F61" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1101111  1000</v>
+      </c>
+      <c r="G61" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1101111  0100</v>
+      </c>
+      <c r="H61" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1101111  0010</v>
+      </c>
+      <c r="I61" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1101111  0001</v>
+      </c>
+      <c r="J61" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1101110  1000</v>
+      </c>
+      <c r="K61" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1101110  0100</v>
+      </c>
+      <c r="L61" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1101110  0010</v>
+      </c>
+      <c r="M61" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1101110  0001</v>
+      </c>
+      <c r="O61" s="83" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C62" s="49">
+        <v>113</v>
+      </c>
+      <c r="D62" s="72">
+        <v>112</v>
+      </c>
+      <c r="E62" s="49">
+        <v>56</v>
+      </c>
+      <c r="F62" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1110001  1000</v>
+      </c>
+      <c r="G62" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1110001  0100</v>
+      </c>
+      <c r="H62" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1110001  0010</v>
+      </c>
+      <c r="I62" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1110001  0001</v>
+      </c>
+      <c r="J62" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1110000  1000</v>
+      </c>
+      <c r="K62" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1110000  0100</v>
+      </c>
+      <c r="L62" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1110000  0010</v>
+      </c>
+      <c r="M62" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1110000  0001</v>
+      </c>
+      <c r="O62" s="83" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C63" s="49">
+        <v>115</v>
+      </c>
+      <c r="D63" s="72">
+        <v>114</v>
+      </c>
+      <c r="E63" s="49">
+        <v>57</v>
+      </c>
+      <c r="F63" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1110011  1000</v>
+      </c>
+      <c r="G63" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1110011  0100</v>
+      </c>
+      <c r="H63" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1110011  0010</v>
+      </c>
+      <c r="I63" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1110011  0001</v>
+      </c>
+      <c r="J63" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1110010  1000</v>
+      </c>
+      <c r="K63" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1110010  0100</v>
+      </c>
+      <c r="L63" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1110010  0010</v>
+      </c>
+      <c r="M63" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1110010  0001</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C64" s="49">
+        <v>117</v>
+      </c>
+      <c r="D64" s="72">
+        <v>116</v>
+      </c>
+      <c r="E64" s="49">
+        <v>58</v>
+      </c>
+      <c r="F64" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1110101  1000</v>
+      </c>
+      <c r="G64" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1110101  0100</v>
+      </c>
+      <c r="H64" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1110101  0010</v>
+      </c>
+      <c r="I64" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1110101  0001</v>
+      </c>
+      <c r="J64" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1110100  1000</v>
+      </c>
+      <c r="K64" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1110100  0100</v>
+      </c>
+      <c r="L64" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1110100  0010</v>
+      </c>
+      <c r="M64" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1110100  0001</v>
+      </c>
+    </row>
+    <row r="65" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C65" s="49">
+        <v>119</v>
+      </c>
+      <c r="D65" s="72">
+        <v>118</v>
+      </c>
+      <c r="E65" s="49">
+        <v>59</v>
+      </c>
+      <c r="F65" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1110111  1000</v>
+      </c>
+      <c r="G65" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1110111  0100</v>
+      </c>
+      <c r="H65" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1110111  0010</v>
+      </c>
+      <c r="I65" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1110111  0001</v>
+      </c>
+      <c r="J65" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1110110  1000</v>
+      </c>
+      <c r="K65" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1110110  0100</v>
+      </c>
+      <c r="L65" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1110110  0010</v>
+      </c>
+      <c r="M65" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1110110  0001</v>
+      </c>
+    </row>
+    <row r="66" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C66" s="49">
+        <v>121</v>
+      </c>
+      <c r="D66" s="72">
+        <v>120</v>
+      </c>
+      <c r="E66" s="49">
+        <v>60</v>
+      </c>
+      <c r="F66" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1111001  1000</v>
+      </c>
+      <c r="G66" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1111001  0100</v>
+      </c>
+      <c r="H66" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1111001  0010</v>
+      </c>
+      <c r="I66" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1111001  0001</v>
+      </c>
+      <c r="J66" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1111000  1000</v>
+      </c>
+      <c r="K66" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1111000  0100</v>
+      </c>
+      <c r="L66" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1111000  0010</v>
+      </c>
+      <c r="M66" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1111000  0001</v>
+      </c>
+    </row>
+    <row r="67" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C67" s="49">
+        <v>123</v>
+      </c>
+      <c r="D67" s="72">
+        <v>122</v>
+      </c>
+      <c r="E67" s="49">
+        <v>61</v>
+      </c>
+      <c r="F67" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1111011  1000</v>
+      </c>
+      <c r="G67" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1111011  0100</v>
+      </c>
+      <c r="H67" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1111011  0010</v>
+      </c>
+      <c r="I67" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1111011  0001</v>
+      </c>
+      <c r="J67" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1111010  1000</v>
+      </c>
+      <c r="K67" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1111010  0100</v>
+      </c>
+      <c r="L67" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1111010  0010</v>
+      </c>
+      <c r="M67" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1111010  0001</v>
+      </c>
+    </row>
+    <row r="68" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C68" s="49">
+        <v>125</v>
+      </c>
+      <c r="D68" s="72">
+        <v>124</v>
+      </c>
+      <c r="E68" s="49">
+        <v>62</v>
+      </c>
+      <c r="F68" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1111101  1000</v>
+      </c>
+      <c r="G68" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1111101  0100</v>
+      </c>
+      <c r="H68" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1111101  0010</v>
+      </c>
+      <c r="I68" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1111101  0001</v>
+      </c>
+      <c r="J68" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1111100  1000</v>
+      </c>
+      <c r="K68" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1111100  0100</v>
+      </c>
+      <c r="L68" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1111100  0010</v>
+      </c>
+      <c r="M68" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1111100  0001</v>
+      </c>
+      <c r="R68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C69" s="49">
+        <v>127</v>
+      </c>
+      <c r="D69" s="72">
+        <v>126</v>
+      </c>
+      <c r="E69" s="49">
+        <v>63</v>
+      </c>
+      <c r="F69" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>1111111  1000</v>
+      </c>
+      <c r="G69" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1111111  0100</v>
+      </c>
+      <c r="H69" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1111111  0010</v>
+      </c>
+      <c r="I69" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>1111111  0001</v>
+      </c>
+      <c r="J69" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1111110  1000</v>
+      </c>
+      <c r="K69" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1111110  0100</v>
+      </c>
+      <c r="L69" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1111110  0010</v>
+      </c>
+      <c r="M69" s="49" t="str">
+        <f t="shared" si="8"/>
+        <v>1111110  0001</v>
+      </c>
+      <c r="R69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="R70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="R71" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="R72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="R73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="R74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="R75" s="54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="R76" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="R77" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="R79" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="R80" s="40">
+        <v>0</v>
+      </c>
+      <c r="S80" s="40">
+        <v>1</v>
+      </c>
+      <c r="T80" s="40">
+        <v>2</v>
+      </c>
+      <c r="U80" s="40">
+        <v>3</v>
+      </c>
+      <c r="V80" s="40">
+        <v>4</v>
+      </c>
+      <c r="W80" s="40">
+        <v>5</v>
+      </c>
+      <c r="X80" s="40">
+        <v>6</v>
+      </c>
+      <c r="Y80" s="40">
+        <v>7</v>
+      </c>
+      <c r="Z80" s="40">
+        <v>8</v>
+      </c>
+      <c r="AA80" s="40">
+        <v>9</v>
+      </c>
+      <c r="AB80" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC80" s="40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="18:29" x14ac:dyDescent="0.25">
+      <c r="R81" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="S81" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="T81" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="U81" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="V81" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="W81" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="X81" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y81" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z81" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA81" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB81" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC81" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="18:29" x14ac:dyDescent="0.25">
+      <c r="R82" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="S82" s="40"/>
+      <c r="T82" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="U82" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="V82" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="W82" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="X82" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y82" s="40"/>
+      <c r="Z82" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA82" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB82" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC82" s="40"/>
+    </row>
+    <row r="84" spans="18:29" x14ac:dyDescent="0.25">
+      <c r="R84" s="110" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="18:29" x14ac:dyDescent="0.25">
+      <c r="R85" s="40">
+        <v>0</v>
+      </c>
+      <c r="S85" s="40">
+        <v>1</v>
+      </c>
+      <c r="T85" s="40">
+        <v>2</v>
+      </c>
+      <c r="U85" s="40">
+        <v>3</v>
+      </c>
+      <c r="V85" s="40">
+        <v>4</v>
+      </c>
+      <c r="W85" s="40">
+        <v>5</v>
+      </c>
+      <c r="X85" s="40">
+        <v>6</v>
+      </c>
+      <c r="Y85" s="40">
+        <v>7</v>
+      </c>
+      <c r="Z85" s="40">
+        <v>8</v>
+      </c>
+      <c r="AA85" s="40">
+        <v>9</v>
+      </c>
+      <c r="AB85" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC85" s="40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="18:29" x14ac:dyDescent="0.25">
+      <c r="R86" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="S86" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="T86" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="U86" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="V86" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="W86" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="X86" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y86" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z86" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA86" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB86" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC86" s="40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="18:29" x14ac:dyDescent="0.25">
+      <c r="R87" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="S87" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="T87" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="U87" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="V87" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="W87" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="X87" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y87" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z87" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA87" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB87" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC87" s="40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/lcd decode.xlsx
+++ b/lcd decode.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul nonadmin\Desktop\Arduino_shield_data\LCD_HT1622_new_version_of_Martys_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A508D6EE-DE6A-4963-A7E4-F14C7C977799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9523291-6231-4BE0-96DC-865BC1C94CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{BF4AB91E-5FF4-40A0-A121-052D5172F618}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{BF4AB91E-5FF4-40A0-A121-052D5172F618}"/>
   </bookViews>
   <sheets>
-    <sheet name="Font HT1622" sheetId="1" r:id="rId1"/>
-    <sheet name="LCD adressing HT1622" sheetId="2" r:id="rId2"/>
-    <sheet name="HT1622 command summary" sheetId="3" r:id="rId3"/>
-    <sheet name="HT1622 LCD timing diagrams" sheetId="4" r:id="rId4"/>
-    <sheet name="LCD add HT1625" sheetId="6" r:id="rId5"/>
+    <sheet name="Revisions" sheetId="7" r:id="rId1"/>
+    <sheet name="Font HT1622" sheetId="1" r:id="rId2"/>
+    <sheet name="LCD adressing HT1622" sheetId="2" r:id="rId3"/>
+    <sheet name="HT1622 command summary" sheetId="3" r:id="rId4"/>
+    <sheet name="HT1622 LCD timing diagrams" sheetId="4" r:id="rId5"/>
+    <sheet name="LCD add HT1625" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="data">'LCD adressing HT1622'!$L$2:$AA$5</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="233">
   <si>
     <t>bin</t>
   </si>
@@ -631,24 +632,6 @@
     <t>In general:</t>
   </si>
   <si>
-    <t>{Add_H_1,7}</t>
-  </si>
-  <si>
-    <t>{Add_H_1,6}</t>
-  </si>
-  <si>
-    <t>{Add_H_1,3}</t>
-  </si>
-  <si>
-    <t>{Add_H_1,5}</t>
-  </si>
-  <si>
-    <t>{Add_H_1,0}</t>
-  </si>
-  <si>
-    <t>{Add_H_1,8}</t>
-  </si>
-  <si>
     <t>{Add_H_2,D}</t>
   </si>
   <si>
@@ -695,6 +678,69 @@
   </si>
   <si>
     <t>OR in terms of "C"arrays:</t>
+  </si>
+  <si>
+    <t>{Add_L_1,7}</t>
+  </si>
+  <si>
+    <t>{Add_L_1,6}</t>
+  </si>
+  <si>
+    <t>{Add_L_1,3}</t>
+  </si>
+  <si>
+    <t>{Add_L_1,5}</t>
+  </si>
+  <si>
+    <t>{Add_L_1,0}</t>
+  </si>
+  <si>
+    <t>{Add_L_1,8}</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Happymacer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>earlier release</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>pre 2022</t>
+  </si>
+  <si>
+    <t>added HT1625</t>
+  </si>
+  <si>
+    <t>corrected general setup in HT1625 to use ADD_H and ADD_L</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>https://github.com/happymacer</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Instructables</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MFptCfe7_l4</t>
+  </si>
+  <si>
+    <t>https://www.instructables.com/Lieo-Power-First-PF906-Treadmill-Controller-Circui/</t>
   </si>
 </sst>
 </file>
@@ -705,7 +751,7 @@
     <numFmt numFmtId="164" formatCode="0000"/>
     <numFmt numFmtId="165" formatCode="0000\ 0000\ 0000\ 0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,6 +835,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1397,7 +1451,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1650,6 +1704,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2530,6 +2611,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823C5D5D-C7DB-403D-9413-52E70F2AED3C}">
+  <dimension ref="A2:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="113" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="110" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="115" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="115" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="114">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="115" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="114" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="114" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="115" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="116" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="117" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="118" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>0</v>
+      </c>
+      <c r="B9" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="120" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>1</v>
+      </c>
+      <c r="B10" s="119" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="121">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>2</v>
+      </c>
+      <c r="B11" s="119" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="121">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="120"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA4561C-6CDC-42D9-8D4E-1FA80314A565}">
   <dimension ref="A2:Z81"/>
   <sheetViews>
@@ -3504,11 +3705,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AE2AE5-585E-46C7-A35F-DFF53999FE9F}">
   <dimension ref="B1:AA93"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -6222,7 +6423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE9BD69-3125-4D53-9C74-698F91C9378E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6237,7 +6438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAB7DC6-C331-48BE-8808-87F7465950F6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6252,12 +6453,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C04644-0D2B-4E3D-9796-4433B568380C}">
   <dimension ref="A1:AC87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC86" sqref="AC86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7342,7 +7543,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B27" s="102" t="str">
         <f>DEC2HEX(C27)</f>
@@ -7439,7 +7640,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B29" s="104" t="str">
         <f t="shared" si="6"/>
@@ -7915,7 +8116,7 @@
     </row>
     <row r="39" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B39" s="108" t="str">
         <f t="shared" si="6"/>
@@ -8039,7 +8240,7 @@
     </row>
     <row r="41" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B41" s="104" t="str">
         <f t="shared" si="6"/>
@@ -8163,7 +8364,7 @@
     </row>
     <row r="43" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B43" s="104" t="str">
         <f t="shared" si="6"/>
@@ -8287,7 +8488,7 @@
     </row>
     <row r="45" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B45" s="104" t="str">
         <f t="shared" si="6"/>
@@ -8959,7 +9160,7 @@
         <v>1100100  0001</v>
       </c>
       <c r="O56" s="44" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P56" s="40" t="s">
         <v>2</v>
@@ -8983,7 +9184,7 @@
         <v>7</v>
       </c>
       <c r="W56" s="40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="3:23" x14ac:dyDescent="0.25">
@@ -9099,7 +9300,7 @@
         <v>1101000  0001</v>
       </c>
       <c r="O58" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="3:23" x14ac:dyDescent="0.25">
@@ -9799,78 +10000,78 @@
     </row>
     <row r="86" spans="18:29" x14ac:dyDescent="0.25">
       <c r="R86" s="40" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="S86" s="40" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="T86" s="40" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="U86" s="40" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="V86" s="40" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="W86" s="40" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="X86" s="40" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="Y86" s="40" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="Z86" s="40" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="AA86" s="40" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="AB86" s="40" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="AC86" s="40" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="18:29" x14ac:dyDescent="0.25">
       <c r="R87" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="S87" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="S87" s="40" t="s">
-        <v>208</v>
-      </c>
       <c r="T87" s="40" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="U87" s="40" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="V87" s="40" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="W87" s="40" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="X87" s="40" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Y87" s="40" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Z87" s="40" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AA87" s="40" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AB87" s="40" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AC87" s="40" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
